--- a/202107_EXP2/tag-seq/sample_list.xlsx
+++ b/202107_EXP2/tag-seq/sample_list.xlsx
@@ -5,23 +5,24 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mattg\Dropbox\UW\Postdoc\2021_NOPP_gigas_ploidy_temp\NOPP-gigas-ploidy-temp\202107_EXP2\tag-seq\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt George\Dropbox\UW\Postdoc\2021_NOPP_gigas_ploidy_temp\NOPP-gigas-ploidy-temp\202107_EXP2\tag-seq\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6688D0C4-3345-4161-83CD-2F9800F708E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15716B3B-B9BD-4A6B-B9CD-87A073F8054B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" activeTab="1" xr2:uid="{E19839A7-D34F-481F-917A-6DCDC29C4D4C}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="2" xr2:uid="{E19839A7-D34F-481F-917A-6DCDC29C4D4C}"/>
   </bookViews>
   <sheets>
     <sheet name="list" sheetId="1" r:id="rId1"/>
     <sheet name="RNA" sheetId="2" r:id="rId2"/>
-    <sheet name="plate_map" sheetId="3" r:id="rId3"/>
+    <sheet name="96-well" sheetId="4" r:id="rId3"/>
+    <sheet name="plate_map" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">list!$A$1:$J$233</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">RNA!$A$2:$G$74</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">RNA!$A$2:$H$74</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +30,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -38,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1343" uniqueCount="366">
   <si>
     <t>day</t>
   </si>
@@ -893,6 +896,249 @@
   </si>
   <si>
     <t>desiccation</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>diluted</t>
+  </si>
+  <si>
+    <t>tube</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>E1</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>G1</t>
+  </si>
+  <si>
+    <t>H1</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>E2</t>
+  </si>
+  <si>
+    <t>E3</t>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
+    <t>F3</t>
+  </si>
+  <si>
+    <t>G2</t>
+  </si>
+  <si>
+    <t>G3</t>
+  </si>
+  <si>
+    <t>H2</t>
+  </si>
+  <si>
+    <t>H3</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>A5</t>
+  </si>
+  <si>
+    <t>A6</t>
+  </si>
+  <si>
+    <t>A7</t>
+  </si>
+  <si>
+    <t>A8</t>
+  </si>
+  <si>
+    <t>A9</t>
+  </si>
+  <si>
+    <t>A10</t>
+  </si>
+  <si>
+    <t>B4</t>
+  </si>
+  <si>
+    <t>B5</t>
+  </si>
+  <si>
+    <t>B6</t>
+  </si>
+  <si>
+    <t>B7</t>
+  </si>
+  <si>
+    <t>B8</t>
+  </si>
+  <si>
+    <t>B9</t>
+  </si>
+  <si>
+    <t>B10</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>C6</t>
+  </si>
+  <si>
+    <t>C7</t>
+  </si>
+  <si>
+    <t>C8</t>
+  </si>
+  <si>
+    <t>C9</t>
+  </si>
+  <si>
+    <t>C10</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>D5</t>
+  </si>
+  <si>
+    <t>D6</t>
+  </si>
+  <si>
+    <t>D7</t>
+  </si>
+  <si>
+    <t>D8</t>
+  </si>
+  <si>
+    <t>D9</t>
+  </si>
+  <si>
+    <t>E4</t>
+  </si>
+  <si>
+    <t>E5</t>
+  </si>
+  <si>
+    <t>E6</t>
+  </si>
+  <si>
+    <t>E7</t>
+  </si>
+  <si>
+    <t>E8</t>
+  </si>
+  <si>
+    <t>E9</t>
+  </si>
+  <si>
+    <t>E10</t>
+  </si>
+  <si>
+    <t>F4</t>
+  </si>
+  <si>
+    <t>F5</t>
+  </si>
+  <si>
+    <t>F6</t>
+  </si>
+  <si>
+    <t>F7</t>
+  </si>
+  <si>
+    <t>F8</t>
+  </si>
+  <si>
+    <t>F9</t>
+  </si>
+  <si>
+    <t>F10</t>
+  </si>
+  <si>
+    <t>G4</t>
+  </si>
+  <si>
+    <t>G5</t>
+  </si>
+  <si>
+    <t>G6</t>
+  </si>
+  <si>
+    <t>G7</t>
+  </si>
+  <si>
+    <t>G8</t>
+  </si>
+  <si>
+    <t>G9</t>
+  </si>
+  <si>
+    <t>H4</t>
+  </si>
+  <si>
+    <t>H5</t>
+  </si>
+  <si>
+    <t>H6</t>
+  </si>
+  <si>
+    <t>H7</t>
+  </si>
+  <si>
+    <t>H8</t>
+  </si>
+  <si>
+    <t>H9</t>
+  </si>
+  <si>
+    <t>H10</t>
   </si>
 </sst>
 </file>
@@ -973,7 +1219,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1016,6 +1262,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1343,26 +1592,26 @@
       <selection pane="bottomLeft" activeCell="D244" sqref="D244:K248"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="8.84375" style="1"/>
-    <col min="2" max="2" width="9.15234375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.84375" style="1"/>
-    <col min="4" max="4" width="20.69140625" style="1" customWidth="1"/>
-    <col min="5" max="6" width="8.84375" style="1"/>
-    <col min="7" max="7" width="20.15234375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.84375" style="1"/>
-    <col min="9" max="9" width="9.23046875" style="1"/>
-    <col min="10" max="10" width="8.84375" style="1"/>
-    <col min="11" max="11" width="10.84375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.23046875" style="1"/>
-    <col min="13" max="13" width="19.69140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="8.84375" style="1"/>
-    <col min="16" max="16" width="10.765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.84375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.83984375" style="1"/>
+    <col min="2" max="2" width="9.15625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.83984375" style="1"/>
+    <col min="4" max="4" width="20.68359375" style="1" customWidth="1"/>
+    <col min="5" max="6" width="8.83984375" style="1"/>
+    <col min="7" max="7" width="20.15625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.83984375" style="1"/>
+    <col min="9" max="9" width="9.20703125" style="1"/>
+    <col min="10" max="10" width="8.83984375" style="1"/>
+    <col min="11" max="11" width="10.83984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.20703125" style="1"/>
+    <col min="13" max="13" width="19.68359375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="8.83984375" style="1"/>
+    <col min="16" max="16" width="10.734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.83984375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="7" t="s">
         <v>5</v>
       </c>
@@ -1411,7 +1660,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="2" spans="1:17" hidden="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -1452,7 +1701,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="3" spans="1:17" hidden="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -1493,7 +1742,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="4" spans="1:17" hidden="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
@@ -1521,7 +1770,7 @@
       </c>
       <c r="K4"/>
     </row>
-    <row r="5" spans="1:17" hidden="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -1562,7 +1811,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="6" spans="1:17" hidden="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
@@ -1603,7 +1852,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="7" spans="1:17" hidden="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
@@ -1644,7 +1893,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="8" spans="1:17" hidden="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
@@ -1685,7 +1934,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="9" spans="1:17" hidden="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="3" t="s">
         <v>12</v>
       </c>
@@ -1726,7 +1975,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="10" spans="1:17" hidden="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="3" t="s">
         <v>13</v>
       </c>
@@ -1767,7 +2016,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="11" spans="1:17" hidden="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="3" t="s">
         <v>14</v>
       </c>
@@ -1799,7 +2048,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:17" hidden="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="3" t="s">
         <v>15</v>
       </c>
@@ -1837,7 +2086,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="13" spans="1:17" hidden="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:17" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="3" t="s">
         <v>16</v>
       </c>
@@ -1872,7 +2121,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="3" t="s">
         <v>29</v>
       </c>
@@ -1912,7 +2161,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="3" t="s">
         <v>30</v>
       </c>
@@ -1952,7 +2201,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="3" t="s">
         <v>31</v>
       </c>
@@ -1992,7 +2241,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="3" t="s">
         <v>32</v>
       </c>
@@ -2032,7 +2281,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="3" t="s">
         <v>33</v>
       </c>
@@ -2065,7 +2314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="3" t="s">
         <v>34</v>
       </c>
@@ -2105,7 +2354,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="3" t="s">
         <v>35</v>
       </c>
@@ -2145,7 +2394,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="3" t="s">
         <v>36</v>
       </c>
@@ -2185,7 +2434,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="3" t="s">
         <v>37</v>
       </c>
@@ -2225,7 +2474,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="3" t="s">
         <v>38</v>
       </c>
@@ -2265,7 +2514,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="3" t="s">
         <v>39</v>
       </c>
@@ -2305,7 +2554,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="3" t="s">
         <v>40</v>
       </c>
@@ -2338,7 +2587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="3" t="s">
         <v>41</v>
       </c>
@@ -2371,7 +2620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="3" t="s">
         <v>42</v>
       </c>
@@ -2418,7 +2667,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="3" t="s">
         <v>43</v>
       </c>
@@ -2451,7 +2700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1" t="s">
         <v>151</v>
       </c>
@@ -2479,7 +2728,7 @@
       </c>
       <c r="K29"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1" t="s">
         <v>152</v>
       </c>
@@ -2507,7 +2756,7 @@
       </c>
       <c r="K30"/>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1" t="s">
         <v>153</v>
       </c>
@@ -2535,7 +2784,7 @@
       </c>
       <c r="K31"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1" t="s">
         <v>154</v>
       </c>
@@ -2563,7 +2812,7 @@
       </c>
       <c r="K32"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="1" t="s">
         <v>155</v>
       </c>
@@ -2591,7 +2840,7 @@
       </c>
       <c r="K33"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1" t="s">
         <v>156</v>
       </c>
@@ -2619,7 +2868,7 @@
       </c>
       <c r="K34"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1" t="s">
         <v>157</v>
       </c>
@@ -2647,7 +2896,7 @@
       </c>
       <c r="K35"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1" t="s">
         <v>158</v>
       </c>
@@ -2675,7 +2924,7 @@
       </c>
       <c r="K36"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1" t="s">
         <v>159</v>
       </c>
@@ -2703,7 +2952,7 @@
       </c>
       <c r="K37"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1" t="s">
         <v>160</v>
       </c>
@@ -2731,7 +2980,7 @@
       </c>
       <c r="K38"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="1" t="s">
         <v>161</v>
       </c>
@@ -2759,7 +3008,7 @@
       </c>
       <c r="K39"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="1" t="s">
         <v>162</v>
       </c>
@@ -2787,7 +3036,7 @@
       </c>
       <c r="K40"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="3" t="s">
         <v>44</v>
       </c>
@@ -2820,7 +3069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="3" t="s">
         <v>45</v>
       </c>
@@ -2853,7 +3102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="3" t="s">
         <v>129</v>
       </c>
@@ -2881,7 +3130,7 @@
       </c>
       <c r="K43"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="3" t="s">
         <v>130</v>
       </c>
@@ -2909,7 +3158,7 @@
       </c>
       <c r="K44"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="3" t="s">
         <v>131</v>
       </c>
@@ -2937,7 +3186,7 @@
       </c>
       <c r="K45"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="3" t="s">
         <v>132</v>
       </c>
@@ -2965,7 +3214,7 @@
       </c>
       <c r="K46"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="3" t="s">
         <v>133</v>
       </c>
@@ -2993,7 +3242,7 @@
       </c>
       <c r="K47"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="3" t="s">
         <v>134</v>
       </c>
@@ -3021,7 +3270,7 @@
       </c>
       <c r="K48"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="3" t="s">
         <v>46</v>
       </c>
@@ -3054,7 +3303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="3" t="s">
         <v>47</v>
       </c>
@@ -3087,7 +3336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="3" t="s">
         <v>48</v>
       </c>
@@ -3120,7 +3369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="3" t="s">
         <v>49</v>
       </c>
@@ -3153,7 +3402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="3" t="s">
         <v>50</v>
       </c>
@@ -3186,7 +3435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="3" t="s">
         <v>51</v>
       </c>
@@ -3214,7 +3463,7 @@
       </c>
       <c r="K54"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="3" t="s">
         <v>52</v>
       </c>
@@ -3247,7 +3496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="3" t="s">
         <v>179</v>
       </c>
@@ -3280,7 +3529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="1" t="s">
         <v>79</v>
       </c>
@@ -3313,7 +3562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="1" t="s">
         <v>80</v>
       </c>
@@ -3346,7 +3595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="1" t="s">
         <v>81</v>
       </c>
@@ -3379,7 +3628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="1" t="s">
         <v>82</v>
       </c>
@@ -3412,7 +3661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="1" t="s">
         <v>83</v>
       </c>
@@ -3445,7 +3694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="1" t="s">
         <v>84</v>
       </c>
@@ -3478,7 +3727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="1" t="s">
         <v>85</v>
       </c>
@@ -3511,7 +3760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="1" t="s">
         <v>86</v>
       </c>
@@ -3544,7 +3793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="1" t="s">
         <v>87</v>
       </c>
@@ -3577,7 +3826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="1" t="s">
         <v>88</v>
       </c>
@@ -3610,7 +3859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="1" t="s">
         <v>89</v>
       </c>
@@ -3643,7 +3892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="3" t="s">
         <v>102</v>
       </c>
@@ -3671,7 +3920,7 @@
       </c>
       <c r="K68"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="3" t="s">
         <v>103</v>
       </c>
@@ -3699,7 +3948,7 @@
       </c>
       <c r="K69"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="3" t="s">
         <v>104</v>
       </c>
@@ -3727,7 +3976,7 @@
       </c>
       <c r="K70"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="3" t="s">
         <v>105</v>
       </c>
@@ -3755,7 +4004,7 @@
       </c>
       <c r="K71"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="3" t="s">
         <v>106</v>
       </c>
@@ -3783,7 +4032,7 @@
       </c>
       <c r="K72"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="3" t="s">
         <v>107</v>
       </c>
@@ -3811,7 +4060,7 @@
       </c>
       <c r="K73"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="3" t="s">
         <v>108</v>
       </c>
@@ -3839,7 +4088,7 @@
       </c>
       <c r="K74"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="3" t="s">
         <v>109</v>
       </c>
@@ -3867,7 +4116,7 @@
       </c>
       <c r="K75"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="3" t="s">
         <v>110</v>
       </c>
@@ -3895,7 +4144,7 @@
       </c>
       <c r="K76"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="3" t="s">
         <v>111</v>
       </c>
@@ -3923,7 +4172,7 @@
       </c>
       <c r="K77"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="3" t="s">
         <v>112</v>
       </c>
@@ -3951,7 +4200,7 @@
       </c>
       <c r="K78"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="3" t="s">
         <v>113</v>
       </c>
@@ -3979,7 +4228,7 @@
       </c>
       <c r="K79"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="3" t="s">
         <v>114</v>
       </c>
@@ -4007,7 +4256,7 @@
       </c>
       <c r="K80"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="3" t="s">
         <v>135</v>
       </c>
@@ -4035,7 +4284,7 @@
       </c>
       <c r="K81"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="3" t="s">
         <v>136</v>
       </c>
@@ -4063,7 +4312,7 @@
       </c>
       <c r="K82"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="3" t="s">
         <v>137</v>
       </c>
@@ -4091,7 +4340,7 @@
       </c>
       <c r="K83"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="3" t="s">
         <v>138</v>
       </c>
@@ -4119,7 +4368,7 @@
       </c>
       <c r="K84"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="3" t="s">
         <v>139</v>
       </c>
@@ -4147,7 +4396,7 @@
       </c>
       <c r="K85"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="3" t="s">
         <v>53</v>
       </c>
@@ -4180,7 +4429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="3" t="s">
         <v>54</v>
       </c>
@@ -4213,7 +4462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="3" t="s">
         <v>55</v>
       </c>
@@ -4246,7 +4495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="3" t="s">
         <v>56</v>
       </c>
@@ -4279,7 +4528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="3" t="s">
         <v>57</v>
       </c>
@@ -4312,7 +4561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="3" t="s">
         <v>58</v>
       </c>
@@ -4345,7 +4594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="3" t="s">
         <v>59</v>
       </c>
@@ -4378,7 +4627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="1" t="s">
         <v>90</v>
       </c>
@@ -4411,7 +4660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="1" t="s">
         <v>91</v>
       </c>
@@ -4444,7 +4693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="1" t="s">
         <v>92</v>
       </c>
@@ -4477,7 +4726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="1" t="s">
         <v>93</v>
       </c>
@@ -4510,7 +4759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="1" t="s">
         <v>94</v>
       </c>
@@ -4543,7 +4792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="1" t="s">
         <v>95</v>
       </c>
@@ -4576,7 +4825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="1" t="s">
         <v>96</v>
       </c>
@@ -4609,7 +4858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="1" t="s">
         <v>97</v>
       </c>
@@ -4642,7 +4891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="1" t="s">
         <v>98</v>
       </c>
@@ -4675,7 +4924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="1" t="s">
         <v>99</v>
       </c>
@@ -4708,7 +4957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="1" t="s">
         <v>100</v>
       </c>
@@ -4741,7 +4990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="1" t="s">
         <v>101</v>
       </c>
@@ -4774,7 +5023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="3" t="s">
         <v>115</v>
       </c>
@@ -4802,7 +5051,7 @@
       </c>
       <c r="K105"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="3" t="s">
         <v>116</v>
       </c>
@@ -4830,7 +5079,7 @@
       </c>
       <c r="K106"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="3" t="s">
         <v>117</v>
       </c>
@@ -4858,7 +5107,7 @@
       </c>
       <c r="K107"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="3" t="s">
         <v>118</v>
       </c>
@@ -4886,7 +5135,7 @@
       </c>
       <c r="K108"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="3" t="s">
         <v>119</v>
       </c>
@@ -4914,7 +5163,7 @@
       </c>
       <c r="K109"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="3" t="s">
         <v>120</v>
       </c>
@@ -4942,7 +5191,7 @@
       </c>
       <c r="K110"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="3" t="s">
         <v>121</v>
       </c>
@@ -4970,7 +5219,7 @@
       </c>
       <c r="K111"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="3" t="s">
         <v>122</v>
       </c>
@@ -4998,7 +5247,7 @@
       </c>
       <c r="K112"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="3" t="s">
         <v>123</v>
       </c>
@@ -5026,7 +5275,7 @@
       </c>
       <c r="K113"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="3" t="s">
         <v>124</v>
       </c>
@@ -5054,7 +5303,7 @@
       </c>
       <c r="K114"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="3" t="s">
         <v>125</v>
       </c>
@@ -5082,7 +5331,7 @@
       </c>
       <c r="K115"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="3" t="s">
         <v>218</v>
       </c>
@@ -5110,7 +5359,7 @@
       </c>
       <c r="K116"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="3" t="s">
         <v>126</v>
       </c>
@@ -5138,7 +5387,7 @@
       </c>
       <c r="K117"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="3" t="s">
         <v>60</v>
       </c>
@@ -5171,7 +5420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="3" t="s">
         <v>17</v>
       </c>
@@ -5199,7 +5448,7 @@
       </c>
       <c r="K119"/>
     </row>
-    <row r="120" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="3" t="s">
         <v>18</v>
       </c>
@@ -5227,7 +5476,7 @@
       </c>
       <c r="K120"/>
     </row>
-    <row r="121" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="3" t="s">
         <v>19</v>
       </c>
@@ -5255,7 +5504,7 @@
       </c>
       <c r="K121"/>
     </row>
-    <row r="122" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="3" t="s">
         <v>20</v>
       </c>
@@ -5283,7 +5532,7 @@
       </c>
       <c r="K122"/>
     </row>
-    <row r="123" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="3" t="s">
         <v>21</v>
       </c>
@@ -5311,7 +5560,7 @@
       </c>
       <c r="K123"/>
     </row>
-    <row r="124" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="3" t="s">
         <v>22</v>
       </c>
@@ -5339,7 +5588,7 @@
       </c>
       <c r="K124"/>
     </row>
-    <row r="125" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="3" t="s">
         <v>23</v>
       </c>
@@ -5367,7 +5616,7 @@
       </c>
       <c r="K125"/>
     </row>
-    <row r="126" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="3" t="s">
         <v>24</v>
       </c>
@@ -5395,7 +5644,7 @@
       </c>
       <c r="K126"/>
     </row>
-    <row r="127" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="3" t="s">
         <v>25</v>
       </c>
@@ -5423,7 +5672,7 @@
       </c>
       <c r="K127"/>
     </row>
-    <row r="128" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="3" t="s">
         <v>26</v>
       </c>
@@ -5451,7 +5700,7 @@
       </c>
       <c r="K128"/>
     </row>
-    <row r="129" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="3" t="s">
         <v>27</v>
       </c>
@@ -5479,7 +5728,7 @@
       </c>
       <c r="K129"/>
     </row>
-    <row r="130" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="3" t="s">
         <v>28</v>
       </c>
@@ -5507,7 +5756,7 @@
       </c>
       <c r="K130"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="3" t="s">
         <v>61</v>
       </c>
@@ -5540,7 +5789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="3" t="s">
         <v>62</v>
       </c>
@@ -5573,7 +5822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="3" t="s">
         <v>63</v>
       </c>
@@ -5606,7 +5855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="3" t="s">
         <v>64</v>
       </c>
@@ -5639,7 +5888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="3" t="s">
         <v>65</v>
       </c>
@@ -5672,7 +5921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="3" t="s">
         <v>66</v>
       </c>
@@ -5705,7 +5954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="3" t="s">
         <v>67</v>
       </c>
@@ -5738,7 +5987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="3" t="s">
         <v>68</v>
       </c>
@@ -5771,7 +6020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="3" t="s">
         <v>140</v>
       </c>
@@ -5799,7 +6048,7 @@
       </c>
       <c r="K139"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" s="3" t="s">
         <v>141</v>
       </c>
@@ -5827,7 +6076,7 @@
       </c>
       <c r="K140"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" s="3" t="s">
         <v>142</v>
       </c>
@@ -5855,7 +6104,7 @@
       </c>
       <c r="K141"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="3" t="s">
         <v>143</v>
       </c>
@@ -5883,7 +6132,7 @@
       </c>
       <c r="K142"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" s="3" t="s">
         <v>144</v>
       </c>
@@ -5911,7 +6160,7 @@
       </c>
       <c r="K143"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" s="3" t="s">
         <v>145</v>
       </c>
@@ -5939,7 +6188,7 @@
       </c>
       <c r="K144"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" s="3" t="s">
         <v>146</v>
       </c>
@@ -5967,7 +6216,7 @@
       </c>
       <c r="K145"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" s="3" t="s">
         <v>147</v>
       </c>
@@ -5995,7 +6244,7 @@
       </c>
       <c r="K146"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" s="3" t="s">
         <v>148</v>
       </c>
@@ -6023,7 +6272,7 @@
       </c>
       <c r="K147"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" s="3" t="s">
         <v>149</v>
       </c>
@@ -6051,7 +6300,7 @@
       </c>
       <c r="K148"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" s="3" t="s">
         <v>150</v>
       </c>
@@ -6079,7 +6328,7 @@
       </c>
       <c r="K149"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" s="3" t="s">
         <v>69</v>
       </c>
@@ -6112,7 +6361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" s="3" t="s">
         <v>70</v>
       </c>
@@ -6145,7 +6394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" s="3" t="s">
         <v>71</v>
       </c>
@@ -6178,7 +6427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" s="3" t="s">
         <v>72</v>
       </c>
@@ -6211,7 +6460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" s="3" t="s">
         <v>73</v>
       </c>
@@ -6244,7 +6493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" s="3" t="s">
         <v>74</v>
       </c>
@@ -6272,7 +6521,7 @@
       </c>
       <c r="K155"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" s="3" t="s">
         <v>75</v>
       </c>
@@ -6305,7 +6554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" s="3" t="s">
         <v>76</v>
       </c>
@@ -6338,7 +6587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" s="1" t="s">
         <v>163</v>
       </c>
@@ -6366,7 +6615,7 @@
       </c>
       <c r="K158"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" s="1" t="s">
         <v>164</v>
       </c>
@@ -6394,7 +6643,7 @@
       </c>
       <c r="K159"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" s="1" t="s">
         <v>165</v>
       </c>
@@ -6422,7 +6671,7 @@
       </c>
       <c r="K160"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" s="1" t="s">
         <v>166</v>
       </c>
@@ -6450,7 +6699,7 @@
       </c>
       <c r="K161"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" s="1" t="s">
         <v>167</v>
       </c>
@@ -6470,7 +6719,7 @@
         <v>128</v>
       </c>
       <c r="G162" s="4" t="str">
-        <f t="shared" ref="G162:G193" si="8">D162&amp;"_"&amp;F162&amp;"_"&amp;C162</f>
+        <f t="shared" ref="G162:G169" si="8">D162&amp;"_"&amp;F162&amp;"_"&amp;C162</f>
         <v>control_T_10</v>
       </c>
       <c r="J162" s="1">
@@ -6478,7 +6727,7 @@
       </c>
       <c r="K162"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" s="1" t="s">
         <v>168</v>
       </c>
@@ -6506,7 +6755,7 @@
       </c>
       <c r="K163"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" s="1" t="s">
         <v>169</v>
       </c>
@@ -6534,7 +6783,7 @@
       </c>
       <c r="K164"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" s="1" t="s">
         <v>170</v>
       </c>
@@ -6562,7 +6811,7 @@
       </c>
       <c r="K165"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" s="1" t="s">
         <v>171</v>
       </c>
@@ -6590,7 +6839,7 @@
       </c>
       <c r="K166"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" s="1" t="s">
         <v>172</v>
       </c>
@@ -6618,7 +6867,7 @@
       </c>
       <c r="K167"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" s="1" t="s">
         <v>173</v>
       </c>
@@ -6646,7 +6895,7 @@
       </c>
       <c r="K168"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" s="1" t="s">
         <v>174</v>
       </c>
@@ -6674,7 +6923,7 @@
       </c>
       <c r="K169"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" s="3" t="s">
         <v>219</v>
       </c>
@@ -6696,7 +6945,7 @@
       </c>
       <c r="K170"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" s="3" t="s">
         <v>220</v>
       </c>
@@ -6718,7 +6967,7 @@
       </c>
       <c r="K171"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" s="3" t="s">
         <v>221</v>
       </c>
@@ -6740,7 +6989,7 @@
       </c>
       <c r="K172"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" s="3" t="s">
         <v>222</v>
       </c>
@@ -6762,7 +7011,7 @@
       </c>
       <c r="K173"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" s="3" t="s">
         <v>223</v>
       </c>
@@ -6784,7 +7033,7 @@
       </c>
       <c r="K174"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" s="3" t="s">
         <v>224</v>
       </c>
@@ -6806,7 +7055,7 @@
       </c>
       <c r="K175"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" s="3" t="s">
         <v>225</v>
       </c>
@@ -6828,7 +7077,7 @@
       </c>
       <c r="K176"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" s="3" t="s">
         <v>226</v>
       </c>
@@ -6850,7 +7099,7 @@
       </c>
       <c r="K177"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" s="3" t="s">
         <v>227</v>
       </c>
@@ -6872,7 +7121,7 @@
       </c>
       <c r="K178"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" s="3" t="s">
         <v>228</v>
       </c>
@@ -6894,7 +7143,7 @@
       </c>
       <c r="K179"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" s="3" t="s">
         <v>229</v>
       </c>
@@ -6916,7 +7165,7 @@
       </c>
       <c r="K180"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" s="3" t="s">
         <v>230</v>
       </c>
@@ -6938,7 +7187,7 @@
       </c>
       <c r="K181"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" s="3" t="s">
         <v>231</v>
       </c>
@@ -6960,7 +7209,7 @@
       </c>
       <c r="K182"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A183" s="3" t="s">
         <v>232</v>
       </c>
@@ -6982,7 +7231,7 @@
       </c>
       <c r="K183"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A184" s="3" t="s">
         <v>233</v>
       </c>
@@ -7004,7 +7253,7 @@
       </c>
       <c r="K184"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A185" s="3" t="s">
         <v>234</v>
       </c>
@@ -7026,7 +7275,7 @@
       </c>
       <c r="K185"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A186" s="3" t="s">
         <v>235</v>
       </c>
@@ -7048,7 +7297,7 @@
       </c>
       <c r="K186"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A187" s="3" t="s">
         <v>236</v>
       </c>
@@ -7070,7 +7319,7 @@
       </c>
       <c r="K187"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A188" s="3" t="s">
         <v>237</v>
       </c>
@@ -7092,7 +7341,7 @@
       </c>
       <c r="K188"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A189" s="3" t="s">
         <v>238</v>
       </c>
@@ -7114,7 +7363,7 @@
       </c>
       <c r="K189"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A190" s="3" t="s">
         <v>239</v>
       </c>
@@ -7136,7 +7385,7 @@
       </c>
       <c r="K190"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A191" s="3" t="s">
         <v>240</v>
       </c>
@@ -7158,7 +7407,7 @@
       </c>
       <c r="K191"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A192" s="3" t="s">
         <v>241</v>
       </c>
@@ -7180,7 +7429,7 @@
       </c>
       <c r="K192"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A193" s="3" t="s">
         <v>242</v>
       </c>
@@ -7202,7 +7451,7 @@
       </c>
       <c r="K193"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A194" s="3" t="s">
         <v>229</v>
       </c>
@@ -7224,7 +7473,7 @@
       </c>
       <c r="K194"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A195" s="3" t="s">
         <v>230</v>
       </c>
@@ -7246,7 +7495,7 @@
       </c>
       <c r="K195"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A196" s="3" t="s">
         <v>243</v>
       </c>
@@ -7268,7 +7517,7 @@
       </c>
       <c r="K196"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A197" s="3" t="s">
         <v>244</v>
       </c>
@@ -7290,7 +7539,7 @@
       </c>
       <c r="K197"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A198" s="3" t="s">
         <v>245</v>
       </c>
@@ -7312,7 +7561,7 @@
       </c>
       <c r="K198"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A199" s="3" t="s">
         <v>246</v>
       </c>
@@ -7334,7 +7583,7 @@
       </c>
       <c r="K199"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A200" s="3" t="s">
         <v>247</v>
       </c>
@@ -7356,7 +7605,7 @@
       </c>
       <c r="K200"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A201" s="3" t="s">
         <v>248</v>
       </c>
@@ -7378,7 +7627,7 @@
       </c>
       <c r="K201"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A202" s="3" t="s">
         <v>249</v>
       </c>
@@ -7400,7 +7649,7 @@
       </c>
       <c r="K202"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A203" s="3" t="s">
         <v>250</v>
       </c>
@@ -7422,7 +7671,7 @@
       </c>
       <c r="K203"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A204" s="3" t="s">
         <v>241</v>
       </c>
@@ -7444,7 +7693,7 @@
       </c>
       <c r="K204"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A205" s="3" t="s">
         <v>242</v>
       </c>
@@ -7466,7 +7715,7 @@
       </c>
       <c r="K205"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A206" s="3" t="s">
         <v>251</v>
       </c>
@@ -7488,7 +7737,7 @@
       </c>
       <c r="K206"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A207" s="3" t="s">
         <v>252</v>
       </c>
@@ -7510,7 +7759,7 @@
       </c>
       <c r="K207"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A208" s="3" t="s">
         <v>253</v>
       </c>
@@ -7532,7 +7781,7 @@
       </c>
       <c r="K208"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A209" s="3" t="s">
         <v>254</v>
       </c>
@@ -7554,7 +7803,7 @@
       </c>
       <c r="K209"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A210" s="3" t="s">
         <v>255</v>
       </c>
@@ -7576,7 +7825,7 @@
       </c>
       <c r="K210"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A211" s="3" t="s">
         <v>256</v>
       </c>
@@ -7598,7 +7847,7 @@
       </c>
       <c r="K211"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A212" s="3" t="s">
         <v>257</v>
       </c>
@@ -7620,7 +7869,7 @@
       </c>
       <c r="K212"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A213" s="3" t="s">
         <v>258</v>
       </c>
@@ -7642,7 +7891,7 @@
       </c>
       <c r="K213"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A214" s="1" t="s">
         <v>261</v>
       </c>
@@ -7664,7 +7913,7 @@
       </c>
       <c r="K214"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A215" s="1" t="s">
         <v>262</v>
       </c>
@@ -7686,7 +7935,7 @@
       </c>
       <c r="K215"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A216" s="1" t="s">
         <v>263</v>
       </c>
@@ -7708,7 +7957,7 @@
       </c>
       <c r="K216"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A217" s="1" t="s">
         <v>264</v>
       </c>
@@ -7730,7 +7979,7 @@
       </c>
       <c r="K217"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A218" s="1" t="s">
         <v>265</v>
       </c>
@@ -7752,7 +8001,7 @@
       </c>
       <c r="K218"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A219" s="1" t="s">
         <v>266</v>
       </c>
@@ -7774,7 +8023,7 @@
       </c>
       <c r="K219"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A220" s="1" t="s">
         <v>267</v>
       </c>
@@ -7796,7 +8045,7 @@
       </c>
       <c r="K220"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A221" s="1" t="s">
         <v>268</v>
       </c>
@@ -7818,7 +8067,7 @@
       </c>
       <c r="K221"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A222" s="1" t="s">
         <v>269</v>
       </c>
@@ -7840,7 +8089,7 @@
       </c>
       <c r="K222"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A223" s="1" t="s">
         <v>259</v>
       </c>
@@ -7862,7 +8111,7 @@
       </c>
       <c r="K223"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A224" s="1" t="s">
         <v>260</v>
       </c>
@@ -7884,7 +8133,7 @@
       </c>
       <c r="K224"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A225" s="1" t="s">
         <v>270</v>
       </c>
@@ -7906,7 +8155,7 @@
       </c>
       <c r="K225"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A226" s="1" t="s">
         <v>271</v>
       </c>
@@ -7928,7 +8177,7 @@
       </c>
       <c r="K226"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A227" s="1" t="s">
         <v>272</v>
       </c>
@@ -7950,7 +8199,7 @@
       </c>
       <c r="K227"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A228" s="1" t="s">
         <v>273</v>
       </c>
@@ -7972,7 +8221,7 @@
       </c>
       <c r="K228"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A229" s="1" t="s">
         <v>274</v>
       </c>
@@ -7994,7 +8243,7 @@
       </c>
       <c r="K229"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A230" s="1" t="s">
         <v>275</v>
       </c>
@@ -8016,7 +8265,7 @@
       </c>
       <c r="K230"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A231" s="1" t="s">
         <v>276</v>
       </c>
@@ -8038,7 +8287,7 @@
       </c>
       <c r="K231"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A232" s="1" t="s">
         <v>277</v>
       </c>
@@ -8060,7 +8309,7 @@
       </c>
       <c r="K232"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A233" s="1" t="s">
         <v>278</v>
       </c>
@@ -8107,31 +8356,33 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A232834-B1F9-4B46-B20A-44E8B5AA4CD6}">
-  <dimension ref="A1:K74"/>
+  <dimension ref="A1:M74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D67" sqref="D67:D74"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G70" sqref="G70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="21.07421875" customWidth="1"/>
-    <col min="2" max="2" width="5.765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.07421875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.53515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.69140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.3046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.53515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.05078125" customWidth="1"/>
+    <col min="2" max="2" width="5.734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.05078125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5234375" style="1" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="9.05078125" style="1" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="10.68359375" style="1" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="19.3125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5234375" style="1" hidden="1" customWidth="1"/>
+    <col min="9" max="12" width="8.83984375" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="F1" s="16" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="G1" s="17" t="s">
         <v>280</v>
       </c>
-      <c r="G1" s="16"/>
-    </row>
-    <row r="2" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="H1" s="17"/>
+    </row>
+    <row r="2" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
@@ -8144,95 +8395,111 @@
       <c r="D2" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="G2" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="H2" s="7" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A3" t="str">
-        <f>VLOOKUP(D3,list!A:D,4,FALSE)</f>
-        <v>control</v>
+      <c r="M2" s="7" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>283</v>
       </c>
       <c r="B3" s="1" t="str">
         <f>VLOOKUP(D3,list!A:F,6,FALSE)</f>
-        <v>D</v>
+        <v>T</v>
       </c>
       <c r="C3" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="E3" s="1">
-        <v>140</v>
+        <v>1</v>
       </c>
       <c r="F3" s="1">
-        <f>ROUND(((45*60)/E3),0)</f>
-        <v>19</v>
+        <v>114</v>
       </c>
       <c r="G3" s="1">
-        <f>60-F3</f>
-        <v>41</v>
+        <f t="shared" ref="G3:G34" si="0">ROUND(((45*60)/F3),0)</f>
+        <v>24</v>
       </c>
       <c r="H3" s="1">
-        <f>ROUND(E3*F3,0)</f>
-        <v>2660</v>
+        <f t="shared" ref="H3:H34" si="1">60-G3</f>
+        <v>36</v>
       </c>
       <c r="I3" s="1">
-        <f>ROUND(H3/60,0)</f>
-        <v>44</v>
-      </c>
-      <c r="K3" t="str">
-        <f>B3&amp;"-"&amp;A3</f>
-        <v>D-control</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A4" t="str">
-        <f>VLOOKUP(D4,list!A:D,4,FALSE)</f>
-        <v>control</v>
+        <f t="shared" ref="I3:I34" si="2">ROUND(F3*G3,0)</f>
+        <v>2736</v>
+      </c>
+      <c r="J3" s="1">
+        <f t="shared" ref="J3:J34" si="3">ROUND(I3/60,0)</f>
+        <v>46</v>
+      </c>
+      <c r="L3" t="str">
+        <f t="shared" ref="L3:L34" si="4">B3&amp;"-"&amp;A3</f>
+        <v>T-heat</v>
+      </c>
+      <c r="M3" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>283</v>
       </c>
       <c r="B4" s="1" t="str">
         <f>VLOOKUP(D4,list!A:F,6,FALSE)</f>
         <v>D</v>
       </c>
       <c r="C4" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E4" s="1">
-        <v>152</v>
+        <v>2</v>
       </c>
       <c r="F4" s="1">
-        <f>ROUND(((45*60)/E4),0)</f>
-        <v>18</v>
+        <v>108</v>
       </c>
       <c r="G4" s="1">
-        <f>60-F4</f>
-        <v>42</v>
+        <f t="shared" si="0"/>
+        <v>25</v>
       </c>
       <c r="H4" s="1">
-        <f t="shared" ref="H4:H67" si="0">ROUND(E4*F4,0)</f>
-        <v>2736</v>
+        <f t="shared" si="1"/>
+        <v>35</v>
       </c>
       <c r="I4" s="1">
-        <f t="shared" ref="I4:I67" si="1">ROUND(H4/60,0)</f>
-        <v>46</v>
-      </c>
-      <c r="K4" t="str">
-        <f t="shared" ref="K4:K67" si="2">B4&amp;"-"&amp;A4</f>
-        <v>D-control</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+        <f t="shared" si="2"/>
+        <v>2700</v>
+      </c>
+      <c r="J4" s="1">
+        <f t="shared" si="3"/>
+        <v>45</v>
+      </c>
+      <c r="L4" t="str">
+        <f t="shared" si="4"/>
+        <v>D-heat</v>
+      </c>
+      <c r="M4" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="str">
         <f>VLOOKUP(D5,list!A:D,4,FALSE)</f>
         <v>control</v>
@@ -8242,114 +8509,131 @@
         <v>D</v>
       </c>
       <c r="C5" s="1">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="1">
+        <v>3</v>
+      </c>
+      <c r="F5" s="1">
+        <v>140</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="H5" s="1">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="I5" s="1">
+        <f t="shared" si="2"/>
+        <v>2660</v>
+      </c>
+      <c r="J5" s="1">
+        <f t="shared" si="3"/>
         <v>44</v>
       </c>
-      <c r="E5" s="1">
-        <v>142</v>
-      </c>
-      <c r="F5" s="1">
-        <f>ROUND(((45*60)/E5),0)</f>
-        <v>19</v>
-      </c>
-      <c r="G5" s="1">
-        <f>60-F5</f>
-        <v>41</v>
-      </c>
-      <c r="H5" s="1">
-        <f t="shared" si="0"/>
-        <v>2698</v>
-      </c>
-      <c r="I5" s="1">
-        <f t="shared" si="1"/>
-        <v>45</v>
-      </c>
-      <c r="K5" t="str">
-        <f t="shared" si="2"/>
+      <c r="L5" t="str">
+        <f t="shared" si="4"/>
         <v>D-control</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="M5" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="str">
         <f>VLOOKUP(D6,list!A:D,4,FALSE)</f>
         <v>control</v>
       </c>
       <c r="B6" s="1" t="str">
         <f>VLOOKUP(D6,list!A:F,6,FALSE)</f>
-        <v>D</v>
+        <v>T</v>
       </c>
       <c r="C6" s="1">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="E6" s="1">
-        <v>138</v>
+        <v>4</v>
       </c>
       <c r="F6" s="1">
-        <f>ROUND(((45*60)/E6),0)</f>
-        <v>20</v>
+        <v>106</v>
       </c>
       <c r="G6" s="1">
-        <f>60-F6</f>
-        <v>40</v>
+        <f t="shared" si="0"/>
+        <v>25</v>
       </c>
       <c r="H6" s="1">
-        <f t="shared" si="0"/>
-        <v>2760</v>
+        <f t="shared" si="1"/>
+        <v>35</v>
       </c>
       <c r="I6" s="1">
-        <f t="shared" si="1"/>
-        <v>46</v>
-      </c>
-      <c r="K6" t="str">
         <f t="shared" si="2"/>
-        <v>D-control</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A7" t="str">
-        <f>VLOOKUP(D7,list!A:D,4,FALSE)</f>
-        <v>control</v>
+        <v>2650</v>
+      </c>
+      <c r="J6" s="1">
+        <f t="shared" si="3"/>
+        <v>44</v>
+      </c>
+      <c r="L6" t="str">
+        <f t="shared" si="4"/>
+        <v>T-control</v>
+      </c>
+      <c r="M6" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" t="s">
+        <v>283</v>
       </c>
       <c r="B7" s="1" t="str">
         <f>VLOOKUP(D7,list!A:F,6,FALSE)</f>
-        <v>D</v>
+        <v>T</v>
       </c>
       <c r="C7" s="1">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="E7" s="1">
-        <v>160</v>
+        <v>5</v>
       </c>
       <c r="F7" s="1">
-        <f>ROUND(((45*60)/E7),0)</f>
-        <v>17</v>
+        <v>142</v>
       </c>
       <c r="G7" s="1">
-        <f>60-F7</f>
-        <v>43</v>
+        <f t="shared" si="0"/>
+        <v>19</v>
       </c>
       <c r="H7" s="1">
-        <f t="shared" si="0"/>
-        <v>2720</v>
+        <f t="shared" si="1"/>
+        <v>41</v>
       </c>
       <c r="I7" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>2698</v>
+      </c>
+      <c r="J7" s="1">
+        <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="K7" t="str">
-        <f t="shared" si="2"/>
-        <v>D-control</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L7" t="str">
+        <f t="shared" si="4"/>
+        <v>T-heat</v>
+      </c>
+      <c r="M7" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="str">
         <f>VLOOKUP(D8,list!A:D,4,FALSE)</f>
         <v>control</v>
@@ -8359,387 +8643,441 @@
         <v>D</v>
       </c>
       <c r="C8" s="1">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E8" s="1">
+        <v>6</v>
+      </c>
+      <c r="F8" s="1">
         <v>152</v>
       </c>
-      <c r="F8" s="1">
-        <f>ROUND(((45*60)/E8),0)</f>
+      <c r="G8" s="1">
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="G8" s="1">
-        <f>60-F8</f>
+      <c r="H8" s="1">
+        <f t="shared" si="1"/>
         <v>42</v>
       </c>
-      <c r="H8" s="1">
-        <f t="shared" si="0"/>
+      <c r="I8" s="1">
+        <f t="shared" si="2"/>
         <v>2736</v>
       </c>
-      <c r="I8" s="1">
-        <f t="shared" si="1"/>
+      <c r="J8" s="1">
+        <f t="shared" si="3"/>
         <v>46</v>
       </c>
-      <c r="K8" t="str">
-        <f t="shared" si="2"/>
+      <c r="L8" t="str">
+        <f t="shared" si="4"/>
         <v>D-control</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="M8" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="str">
         <f>VLOOKUP(D9,list!A:D,4,FALSE)</f>
         <v>control</v>
       </c>
       <c r="B9" s="1" t="str">
         <f>VLOOKUP(D9,list!A:F,6,FALSE)</f>
-        <v>D</v>
+        <v>T</v>
       </c>
       <c r="C9" s="1">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="E9" s="1">
-        <v>164</v>
+        <v>7</v>
       </c>
       <c r="F9" s="1">
-        <f>ROUND(((45*60)/E9),0)</f>
-        <v>16</v>
+        <v>152</v>
       </c>
       <c r="G9" s="1">
-        <f>60-F9</f>
-        <v>44</v>
+        <f t="shared" si="0"/>
+        <v>18</v>
       </c>
       <c r="H9" s="1">
-        <f t="shared" si="0"/>
-        <v>2624</v>
+        <f t="shared" si="1"/>
+        <v>42</v>
       </c>
       <c r="I9" s="1">
-        <f t="shared" si="1"/>
-        <v>44</v>
-      </c>
-      <c r="K9" t="str">
         <f t="shared" si="2"/>
-        <v>D-control</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
+        <v>2736</v>
+      </c>
+      <c r="J9" s="1">
+        <f t="shared" si="3"/>
+        <v>46</v>
+      </c>
+      <c r="L9" t="str">
+        <f t="shared" si="4"/>
+        <v>T-control</v>
+      </c>
+      <c r="M9" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="str">
         <f>VLOOKUP(D10,list!A:D,4,FALSE)</f>
         <v>control</v>
       </c>
       <c r="B10" s="1" t="str">
         <f>VLOOKUP(D10,list!A:F,6,FALSE)</f>
-        <v>D</v>
+        <v>T</v>
       </c>
       <c r="C10" s="1">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="E10" s="1">
-        <v>178</v>
+        <v>8</v>
       </c>
       <c r="F10" s="1">
-        <f>ROUND(((45*60)/E10),0)</f>
-        <v>15</v>
+        <v>150</v>
       </c>
       <c r="G10" s="1">
-        <f>60-F10</f>
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="H10" s="1">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="I10" s="1">
+        <f t="shared" si="2"/>
+        <v>2700</v>
+      </c>
+      <c r="J10" s="1">
+        <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="H10" s="1">
-        <f t="shared" si="0"/>
-        <v>2670</v>
-      </c>
-      <c r="I10" s="1">
-        <f t="shared" si="1"/>
-        <v>45</v>
-      </c>
-      <c r="K10" t="str">
-        <f t="shared" si="2"/>
-        <v>D-control</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A11" t="str">
-        <f>VLOOKUP(D11,list!A:D,4,FALSE)</f>
-        <v>control</v>
+      <c r="L10" t="str">
+        <f t="shared" si="4"/>
+        <v>T-control</v>
+      </c>
+      <c r="M10" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" t="s">
+        <v>283</v>
       </c>
       <c r="B11" s="1" t="str">
         <f>VLOOKUP(D11,list!A:F,6,FALSE)</f>
-        <v>D</v>
+        <v>T</v>
       </c>
       <c r="C11" s="1">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="1">
+        <v>9</v>
+      </c>
+      <c r="F11" s="1">
+        <v>82.6</v>
+      </c>
+      <c r="G11" s="1">
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="E11" s="1">
-        <v>120</v>
-      </c>
-      <c r="F11" s="1">
-        <f>ROUND(((45*60)/E11),0)</f>
-        <v>23</v>
-      </c>
-      <c r="G11" s="1">
-        <f>60-F11</f>
-        <v>37</v>
-      </c>
       <c r="H11" s="1">
-        <f t="shared" si="0"/>
-        <v>2760</v>
+        <f t="shared" si="1"/>
+        <v>27</v>
       </c>
       <c r="I11" s="1">
-        <f t="shared" si="1"/>
-        <v>46</v>
-      </c>
-      <c r="K11" t="str">
         <f t="shared" si="2"/>
-        <v>D-control</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A12" t="str">
-        <f>VLOOKUP(D12,list!A:D,4,FALSE)</f>
-        <v>control</v>
+        <v>2726</v>
+      </c>
+      <c r="J11" s="1">
+        <f t="shared" si="3"/>
+        <v>45</v>
+      </c>
+      <c r="L11" t="str">
+        <f t="shared" si="4"/>
+        <v>T-heat</v>
+      </c>
+      <c r="M11" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" t="s">
+        <v>283</v>
       </c>
       <c r="B12" s="1" t="str">
         <f>VLOOKUP(D12,list!A:F,6,FALSE)</f>
-        <v>D</v>
+        <v>T</v>
       </c>
       <c r="C12" s="1">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="E12" s="1">
-        <v>142</v>
+        <v>10</v>
       </c>
       <c r="F12" s="1">
-        <f>ROUND(((45*60)/E12),0)</f>
-        <v>19</v>
+        <v>164</v>
       </c>
       <c r="G12" s="1">
-        <f>60-F12</f>
-        <v>41</v>
+        <f t="shared" si="0"/>
+        <v>16</v>
       </c>
       <c r="H12" s="1">
-        <f t="shared" si="0"/>
-        <v>2698</v>
+        <f t="shared" si="1"/>
+        <v>44</v>
       </c>
       <c r="I12" s="1">
-        <f t="shared" si="1"/>
-        <v>45</v>
-      </c>
-      <c r="K12" t="str">
         <f t="shared" si="2"/>
-        <v>D-control</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
+        <v>2624</v>
+      </c>
+      <c r="J12" s="1">
+        <f t="shared" si="3"/>
+        <v>44</v>
+      </c>
+      <c r="L12" t="str">
+        <f t="shared" si="4"/>
+        <v>T-heat</v>
+      </c>
+      <c r="M12" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="str">
         <f>VLOOKUP(D13,list!A:D,4,FALSE)</f>
         <v>control</v>
       </c>
       <c r="B13" s="1" t="str">
         <f>VLOOKUP(D13,list!A:F,6,FALSE)</f>
-        <v>D</v>
+        <v>T</v>
       </c>
       <c r="C13" s="1">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="E13" s="1">
-        <v>134</v>
+        <v>11</v>
       </c>
       <c r="F13" s="1">
-        <f>ROUND(((45*60)/E13),0)</f>
-        <v>20</v>
+        <v>184</v>
       </c>
       <c r="G13" s="1">
-        <f>60-F13</f>
-        <v>40</v>
+        <f t="shared" si="0"/>
+        <v>15</v>
       </c>
       <c r="H13" s="1">
-        <f t="shared" si="0"/>
-        <v>2680</v>
-      </c>
-      <c r="I13" s="1">
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="K13" t="str">
+      <c r="I13" s="1">
         <f t="shared" si="2"/>
-        <v>D-control</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A14" t="str">
-        <f>VLOOKUP(D14,list!A:D,4,FALSE)</f>
-        <v>control</v>
+        <v>2760</v>
+      </c>
+      <c r="J13" s="1">
+        <f t="shared" si="3"/>
+        <v>46</v>
+      </c>
+      <c r="L13" t="str">
+        <f t="shared" si="4"/>
+        <v>T-control</v>
+      </c>
+      <c r="M13" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" t="s">
+        <v>283</v>
       </c>
       <c r="B14" s="1" t="str">
         <f>VLOOKUP(D14,list!A:F,6,FALSE)</f>
         <v>D</v>
       </c>
       <c r="C14" s="1">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="E14" s="1">
-        <v>170</v>
+        <v>12</v>
       </c>
       <c r="F14" s="1">
-        <f>ROUND(((45*60)/E14),0)</f>
-        <v>16</v>
+        <v>184</v>
       </c>
       <c r="G14" s="1">
-        <f>60-F14</f>
-        <v>44</v>
+        <f t="shared" si="0"/>
+        <v>15</v>
       </c>
       <c r="H14" s="1">
-        <f t="shared" si="0"/>
-        <v>2720</v>
-      </c>
-      <c r="I14" s="1">
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="K14" t="str">
+      <c r="I14" s="1">
         <f t="shared" si="2"/>
-        <v>D-control</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A15" t="str">
-        <f>VLOOKUP(D15,list!A:D,4,FALSE)</f>
-        <v>control</v>
+        <v>2760</v>
+      </c>
+      <c r="J14" s="1">
+        <f t="shared" si="3"/>
+        <v>46</v>
+      </c>
+      <c r="L14" t="str">
+        <f t="shared" si="4"/>
+        <v>D-heat</v>
+      </c>
+      <c r="M14" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" t="s">
+        <v>283</v>
       </c>
       <c r="B15" s="1" t="str">
         <f>VLOOKUP(D15,list!A:F,6,FALSE)</f>
-        <v>T</v>
+        <v>D</v>
       </c>
       <c r="C15" s="1">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="E15" s="1">
-        <v>106</v>
+        <v>13</v>
       </c>
       <c r="F15" s="1">
-        <f>ROUND(((45*60)/E15),0)</f>
-        <v>25</v>
+        <v>126</v>
       </c>
       <c r="G15" s="1">
-        <f>60-F15</f>
-        <v>35</v>
+        <f t="shared" si="0"/>
+        <v>21</v>
       </c>
       <c r="H15" s="1">
-        <f t="shared" si="0"/>
-        <v>2650</v>
+        <f t="shared" si="1"/>
+        <v>39</v>
       </c>
       <c r="I15" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>2646</v>
+      </c>
+      <c r="J15" s="1">
+        <f t="shared" si="3"/>
         <v>44</v>
       </c>
-      <c r="K15" t="str">
-        <f t="shared" si="2"/>
-        <v>T-control</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A16" t="str">
-        <f>VLOOKUP(D16,list!A:D,4,FALSE)</f>
-        <v>control</v>
+      <c r="L15" t="str">
+        <f t="shared" si="4"/>
+        <v>D-heat</v>
+      </c>
+      <c r="M15" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" t="s">
+        <v>283</v>
       </c>
       <c r="B16" s="1" t="str">
         <f>VLOOKUP(D16,list!A:F,6,FALSE)</f>
         <v>T</v>
       </c>
       <c r="C16" s="1">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="E16" s="1">
-        <v>152</v>
+        <v>14</v>
       </c>
       <c r="F16" s="1">
-        <f>ROUND(((45*60)/E16),0)</f>
-        <v>18</v>
+        <v>108</v>
       </c>
       <c r="G16" s="1">
-        <f>60-F16</f>
-        <v>42</v>
+        <f t="shared" si="0"/>
+        <v>25</v>
       </c>
       <c r="H16" s="1">
-        <f t="shared" si="0"/>
-        <v>2736</v>
+        <f t="shared" si="1"/>
+        <v>35</v>
       </c>
       <c r="I16" s="1">
-        <f t="shared" si="1"/>
-        <v>46</v>
-      </c>
-      <c r="K16" t="str">
         <f t="shared" si="2"/>
-        <v>T-control</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A17" t="str">
-        <f>VLOOKUP(D17,list!A:D,4,FALSE)</f>
-        <v>control</v>
+        <v>2700</v>
+      </c>
+      <c r="J16" s="1">
+        <f t="shared" si="3"/>
+        <v>45</v>
+      </c>
+      <c r="L16" t="str">
+        <f t="shared" si="4"/>
+        <v>T-heat</v>
+      </c>
+      <c r="M16" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" t="s">
+        <v>283</v>
       </c>
       <c r="B17" s="1" t="str">
         <f>VLOOKUP(D17,list!A:F,6,FALSE)</f>
         <v>T</v>
       </c>
       <c r="C17" s="1">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="E17" s="1">
-        <v>150</v>
+        <v>15</v>
       </c>
       <c r="F17" s="1">
-        <f>ROUND(((45*60)/E17),0)</f>
-        <v>18</v>
+        <v>124</v>
       </c>
       <c r="G17" s="1">
-        <f>60-F17</f>
-        <v>42</v>
+        <f t="shared" si="0"/>
+        <v>22</v>
       </c>
       <c r="H17" s="1">
-        <f t="shared" si="0"/>
-        <v>2700</v>
+        <f t="shared" si="1"/>
+        <v>38</v>
       </c>
       <c r="I17" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>2728</v>
+      </c>
+      <c r="J17" s="1">
+        <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="K17" t="str">
-        <f t="shared" si="2"/>
-        <v>T-control</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L17" t="str">
+        <f t="shared" si="4"/>
+        <v>T-heat</v>
+      </c>
+      <c r="M17" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="str">
         <f>VLOOKUP(D18,list!A:D,4,FALSE)</f>
         <v>control</v>
@@ -8749,75 +9087,86 @@
         <v>T</v>
       </c>
       <c r="C18" s="1">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E18" s="1">
-        <v>184</v>
+        <v>16</v>
       </c>
       <c r="F18" s="1">
-        <f>ROUND(((45*60)/E18),0)</f>
-        <v>15</v>
+        <v>170</v>
       </c>
       <c r="G18" s="1">
-        <f>60-F18</f>
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="H18" s="1">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="I18" s="1">
+        <f t="shared" si="2"/>
+        <v>2720</v>
+      </c>
+      <c r="J18" s="1">
+        <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="H18" s="1">
-        <f t="shared" si="0"/>
-        <v>2760</v>
-      </c>
-      <c r="I18" s="1">
-        <f t="shared" si="1"/>
-        <v>46</v>
-      </c>
-      <c r="K18" t="str">
-        <f t="shared" si="2"/>
+      <c r="L18" t="str">
+        <f t="shared" si="4"/>
         <v>T-control</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A19" t="str">
-        <f>VLOOKUP(D19,list!A:D,4,FALSE)</f>
-        <v>control</v>
+      <c r="M18" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" t="s">
+        <v>283</v>
       </c>
       <c r="B19" s="1" t="str">
         <f>VLOOKUP(D19,list!A:F,6,FALSE)</f>
-        <v>T</v>
+        <v>D</v>
       </c>
       <c r="C19" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="E19" s="1">
-        <v>170</v>
+        <v>17</v>
       </c>
       <c r="F19" s="1">
-        <f>ROUND(((45*60)/E19),0)</f>
-        <v>16</v>
+        <v>128</v>
       </c>
       <c r="G19" s="1">
-        <f>60-F19</f>
-        <v>44</v>
+        <f t="shared" si="0"/>
+        <v>21</v>
       </c>
       <c r="H19" s="1">
-        <f t="shared" si="0"/>
-        <v>2720</v>
+        <f t="shared" si="1"/>
+        <v>39</v>
       </c>
       <c r="I19" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>2688</v>
+      </c>
+      <c r="J19" s="1">
+        <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="K19" t="str">
-        <f t="shared" si="2"/>
-        <v>T-control</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L19" t="str">
+        <f t="shared" si="4"/>
+        <v>D-heat</v>
+      </c>
+      <c r="M19" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="str">
         <f>VLOOKUP(D20,list!A:D,4,FALSE)</f>
         <v>control</v>
@@ -8833,108 +9182,125 @@
         <v>74</v>
       </c>
       <c r="E20" s="1">
+        <v>18</v>
+      </c>
+      <c r="F20" s="1">
         <v>176</v>
       </c>
-      <c r="F20" s="1">
-        <f>ROUND(((45*60)/E20),0)</f>
+      <c r="G20" s="1">
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="G20" s="1">
-        <f>60-F20</f>
+      <c r="H20" s="1">
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="H20" s="1">
-        <f t="shared" si="0"/>
+      <c r="I20" s="1">
+        <f t="shared" si="2"/>
         <v>2640</v>
       </c>
-      <c r="I20" s="1">
-        <f t="shared" si="1"/>
+      <c r="J20" s="1">
+        <f t="shared" si="3"/>
         <v>44</v>
       </c>
-      <c r="K20" t="str">
-        <f t="shared" si="2"/>
+      <c r="L20" t="str">
+        <f t="shared" si="4"/>
         <v>T-control</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A21" t="str">
-        <f>VLOOKUP(D21,list!A:D,4,FALSE)</f>
-        <v>control</v>
+      <c r="M20" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" t="s">
+        <v>283</v>
       </c>
       <c r="B21" s="1" t="str">
         <f>VLOOKUP(D21,list!A:F,6,FALSE)</f>
         <v>T</v>
       </c>
       <c r="C21" s="1">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="E21" s="1">
-        <v>200</v>
+        <v>19</v>
       </c>
       <c r="F21" s="1">
-        <f>ROUND(((45*60)/E21),0)</f>
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="G21" s="1">
-        <f>60-F21</f>
-        <v>46</v>
+        <f t="shared" si="0"/>
+        <v>25</v>
       </c>
       <c r="H21" s="1">
-        <f t="shared" si="0"/>
-        <v>2800</v>
+        <f t="shared" si="1"/>
+        <v>35</v>
       </c>
       <c r="I21" s="1">
-        <f t="shared" si="1"/>
-        <v>47</v>
-      </c>
-      <c r="K21" t="str">
         <f t="shared" si="2"/>
-        <v>T-control</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
+        <v>2700</v>
+      </c>
+      <c r="J21" s="1">
+        <f t="shared" si="3"/>
+        <v>45</v>
+      </c>
+      <c r="L21" t="str">
+        <f t="shared" si="4"/>
+        <v>T-heat</v>
+      </c>
+      <c r="M21" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="str">
         <f>VLOOKUP(D22,list!A:D,4,FALSE)</f>
         <v>control</v>
       </c>
       <c r="B22" s="1" t="str">
         <f>VLOOKUP(D22,list!A:F,6,FALSE)</f>
-        <v>T</v>
+        <v>D</v>
       </c>
       <c r="C22" s="1">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="E22" s="1">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="F22" s="1">
-        <f>ROUND(((45*60)/E22),0)</f>
-        <v>14</v>
+        <v>142</v>
       </c>
       <c r="G22" s="1">
-        <f>60-F22</f>
-        <v>46</v>
+        <f t="shared" si="0"/>
+        <v>19</v>
       </c>
       <c r="H22" s="1">
-        <f t="shared" si="0"/>
-        <v>2800</v>
+        <f t="shared" si="1"/>
+        <v>41</v>
       </c>
       <c r="I22" s="1">
-        <f t="shared" si="1"/>
-        <v>47</v>
-      </c>
-      <c r="K22" t="str">
         <f t="shared" si="2"/>
-        <v>T-control</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
+        <v>2698</v>
+      </c>
+      <c r="J22" s="1">
+        <f t="shared" si="3"/>
+        <v>45</v>
+      </c>
+      <c r="L22" t="str">
+        <f t="shared" si="4"/>
+        <v>D-control</v>
+      </c>
+      <c r="M22" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="str">
         <f>VLOOKUP(D23,list!A:D,4,FALSE)</f>
         <v>control</v>
@@ -8944,153 +9310,176 @@
         <v>T</v>
       </c>
       <c r="C23" s="1">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="E23" s="1">
-        <v>162</v>
+        <v>21</v>
       </c>
       <c r="F23" s="1">
-        <f>ROUND(((45*60)/E23),0)</f>
-        <v>17</v>
+        <v>200</v>
       </c>
       <c r="G23" s="1">
-        <f>60-F23</f>
-        <v>43</v>
+        <f t="shared" si="0"/>
+        <v>14</v>
       </c>
       <c r="H23" s="1">
-        <f t="shared" si="0"/>
-        <v>2754</v>
-      </c>
-      <c r="I23" s="1">
         <f t="shared" si="1"/>
         <v>46</v>
       </c>
-      <c r="K23" t="str">
+      <c r="I23" s="1">
         <f t="shared" si="2"/>
+        <v>2800</v>
+      </c>
+      <c r="J23" s="1">
+        <f t="shared" si="3"/>
+        <v>47</v>
+      </c>
+      <c r="L23" t="str">
+        <f t="shared" si="4"/>
         <v>T-control</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="M23" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="str">
         <f>VLOOKUP(D24,list!A:D,4,FALSE)</f>
         <v>control</v>
       </c>
       <c r="B24" s="1" t="str">
         <f>VLOOKUP(D24,list!A:F,6,FALSE)</f>
-        <v>T</v>
+        <v>D</v>
       </c>
       <c r="C24" s="1">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="E24" s="1">
-        <v>166</v>
+        <v>22</v>
       </c>
       <c r="F24" s="1">
-        <f>ROUND(((45*60)/E24),0)</f>
-        <v>16</v>
+        <v>138</v>
       </c>
       <c r="G24" s="1">
-        <f>60-F24</f>
-        <v>44</v>
+        <f t="shared" si="0"/>
+        <v>20</v>
       </c>
       <c r="H24" s="1">
-        <f t="shared" si="0"/>
-        <v>2656</v>
+        <f t="shared" si="1"/>
+        <v>40</v>
       </c>
       <c r="I24" s="1">
-        <f t="shared" si="1"/>
-        <v>44</v>
-      </c>
-      <c r="K24" t="str">
         <f t="shared" si="2"/>
-        <v>T-control</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
+        <v>2760</v>
+      </c>
+      <c r="J24" s="1">
+        <f t="shared" si="3"/>
+        <v>46</v>
+      </c>
+      <c r="L24" t="str">
+        <f t="shared" si="4"/>
+        <v>D-control</v>
+      </c>
+      <c r="M24" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="str">
         <f>VLOOKUP(D25,list!A:D,4,FALSE)</f>
         <v>control</v>
       </c>
       <c r="B25" s="1" t="str">
         <f>VLOOKUP(D25,list!A:F,6,FALSE)</f>
-        <v>T</v>
+        <v>D</v>
       </c>
       <c r="C25" s="1">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="E25" s="1">
-        <v>142</v>
+        <v>23</v>
       </c>
       <c r="F25" s="1">
-        <f>ROUND(((45*60)/E25),0)</f>
-        <v>19</v>
+        <v>160</v>
       </c>
       <c r="G25" s="1">
-        <f>60-F25</f>
-        <v>41</v>
+        <f t="shared" si="0"/>
+        <v>17</v>
       </c>
       <c r="H25" s="1">
-        <f t="shared" si="0"/>
-        <v>2698</v>
+        <f t="shared" si="1"/>
+        <v>43</v>
       </c>
       <c r="I25" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>2720</v>
+      </c>
+      <c r="J25" s="1">
+        <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="K25" t="str">
-        <f t="shared" si="2"/>
-        <v>T-control</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A26" t="str">
-        <f>VLOOKUP(D26,list!A:D,4,FALSE)</f>
-        <v>control</v>
+      <c r="L25" t="str">
+        <f t="shared" si="4"/>
+        <v>D-control</v>
+      </c>
+      <c r="M25" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" t="s">
+        <v>283</v>
       </c>
       <c r="B26" s="1" t="str">
         <f>VLOOKUP(D26,list!A:F,6,FALSE)</f>
-        <v>T</v>
+        <v>D</v>
       </c>
       <c r="C26" s="1">
+        <v>24</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="E26" s="1">
-        <v>180</v>
+        <v>24</v>
       </c>
       <c r="F26" s="1">
-        <f>ROUND(((45*60)/E26),0)</f>
-        <v>15</v>
+        <v>122</v>
       </c>
       <c r="G26" s="1">
-        <f>60-F26</f>
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="H26" s="1">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="I26" s="1">
+        <f t="shared" si="2"/>
+        <v>2684</v>
+      </c>
+      <c r="J26" s="1">
+        <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="H26" s="1">
-        <f t="shared" si="0"/>
-        <v>2700</v>
-      </c>
-      <c r="I26" s="1">
-        <f t="shared" si="1"/>
-        <v>45</v>
-      </c>
-      <c r="K26" t="str">
-        <f t="shared" si="2"/>
-        <v>T-control</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L26" t="str">
+        <f t="shared" si="4"/>
+        <v>D-heat</v>
+      </c>
+      <c r="M26" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>283</v>
       </c>
@@ -9099,264 +9488,308 @@
         <v>D</v>
       </c>
       <c r="C27" s="1">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="E27" s="1">
-        <v>108</v>
+        <v>25</v>
       </c>
       <c r="F27" s="1">
-        <f>ROUND(((45*60)/E27),0)</f>
-        <v>25</v>
+        <v>182</v>
       </c>
       <c r="G27" s="1">
-        <f>60-F27</f>
-        <v>35</v>
+        <f t="shared" si="0"/>
+        <v>15</v>
       </c>
       <c r="H27" s="1">
-        <f t="shared" si="0"/>
-        <v>2700</v>
-      </c>
-      <c r="I27" s="1">
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="K27" t="str">
+      <c r="I27" s="1">
         <f t="shared" si="2"/>
+        <v>2730</v>
+      </c>
+      <c r="J27" s="1">
+        <f t="shared" si="3"/>
+        <v>46</v>
+      </c>
+      <c r="L27" t="str">
+        <f t="shared" si="4"/>
         <v>D-heat</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="M27" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>283</v>
       </c>
       <c r="B28" s="1" t="str">
         <f>VLOOKUP(D28,list!A:F,6,FALSE)</f>
-        <v>D</v>
+        <v>T</v>
       </c>
       <c r="C28" s="1">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="E28" s="1">
-        <v>184</v>
+        <v>26</v>
       </c>
       <c r="F28" s="1">
-        <f>ROUND(((45*60)/E28),0)</f>
-        <v>15</v>
+        <v>130</v>
       </c>
       <c r="G28" s="1">
-        <f>60-F28</f>
-        <v>45</v>
+        <f t="shared" si="0"/>
+        <v>21</v>
       </c>
       <c r="H28" s="1">
-        <f t="shared" si="0"/>
-        <v>2760</v>
+        <f t="shared" si="1"/>
+        <v>39</v>
       </c>
       <c r="I28" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>2730</v>
+      </c>
+      <c r="J28" s="1">
+        <f t="shared" si="3"/>
         <v>46</v>
       </c>
-      <c r="K28" t="str">
-        <f t="shared" si="2"/>
-        <v>D-heat</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A29" t="s">
-        <v>283</v>
+      <c r="L28" t="str">
+        <f t="shared" si="4"/>
+        <v>T-heat</v>
+      </c>
+      <c r="M28" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" t="str">
+        <f>VLOOKUP(D29,list!A:D,4,FALSE)</f>
+        <v>control</v>
       </c>
       <c r="B29" s="1" t="str">
         <f>VLOOKUP(D29,list!A:F,6,FALSE)</f>
         <v>D</v>
       </c>
       <c r="C29" s="1">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E29" s="1">
-        <v>126</v>
+        <v>27</v>
       </c>
       <c r="F29" s="1">
-        <f>ROUND(((45*60)/E29),0)</f>
-        <v>21</v>
+        <v>152</v>
       </c>
       <c r="G29" s="1">
-        <f>60-F29</f>
-        <v>39</v>
+        <f t="shared" si="0"/>
+        <v>18</v>
       </c>
       <c r="H29" s="1">
-        <f t="shared" si="0"/>
-        <v>2646</v>
+        <f t="shared" si="1"/>
+        <v>42</v>
       </c>
       <c r="I29" s="1">
-        <f t="shared" si="1"/>
-        <v>44</v>
-      </c>
-      <c r="K29" t="str">
         <f t="shared" si="2"/>
-        <v>D-heat</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.4">
+        <v>2736</v>
+      </c>
+      <c r="J29" s="1">
+        <f t="shared" si="3"/>
+        <v>46</v>
+      </c>
+      <c r="L29" t="str">
+        <f t="shared" si="4"/>
+        <v>D-control</v>
+      </c>
+      <c r="M29" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>283</v>
       </c>
       <c r="B30" s="1" t="str">
         <f>VLOOKUP(D30,list!A:F,6,FALSE)</f>
-        <v>D</v>
+        <v>T</v>
       </c>
       <c r="C30" s="1">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="D30" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E30" s="1">
+        <v>28</v>
+      </c>
+      <c r="F30" s="1">
+        <v>124</v>
+      </c>
+      <c r="G30" s="1">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="H30" s="1">
+        <f t="shared" si="1"/>
         <v>38</v>
       </c>
-      <c r="E30" s="1">
-        <v>128</v>
-      </c>
-      <c r="F30" s="1">
-        <f>ROUND(((45*60)/E30),0)</f>
-        <v>21</v>
-      </c>
-      <c r="G30" s="1">
-        <f>60-F30</f>
-        <v>39</v>
-      </c>
-      <c r="H30" s="1">
+      <c r="I30" s="1">
+        <f t="shared" si="2"/>
+        <v>2728</v>
+      </c>
+      <c r="J30" s="1">
+        <f t="shared" si="3"/>
+        <v>45</v>
+      </c>
+      <c r="L30" t="str">
+        <f t="shared" si="4"/>
+        <v>T-heat</v>
+      </c>
+      <c r="M30" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" t="s">
+        <v>283</v>
+      </c>
+      <c r="B31" s="1" t="str">
+        <f>VLOOKUP(D31,list!A:F,6,FALSE)</f>
+        <v>T</v>
+      </c>
+      <c r="C31" s="1">
+        <v>29</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E31" s="1">
+        <v>29</v>
+      </c>
+      <c r="F31" s="1">
+        <v>178</v>
+      </c>
+      <c r="G31" s="1">
         <f t="shared" si="0"/>
-        <v>2688</v>
-      </c>
-      <c r="I30" s="1">
+        <v>15</v>
+      </c>
+      <c r="H31" s="1">
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="K30" t="str">
+      <c r="I31" s="1">
         <f t="shared" si="2"/>
-        <v>D-heat</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A31" t="s">
-        <v>283</v>
-      </c>
-      <c r="B31" s="1" t="str">
-        <f>VLOOKUP(D31,list!A:F,6,FALSE)</f>
-        <v>D</v>
-      </c>
-      <c r="C31" s="1">
-        <v>24</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E31" s="1">
-        <v>122</v>
-      </c>
-      <c r="F31" s="1">
-        <f>ROUND(((45*60)/E31),0)</f>
-        <v>22</v>
-      </c>
-      <c r="G31" s="1">
-        <f>60-F31</f>
-        <v>38</v>
-      </c>
-      <c r="H31" s="1">
-        <f t="shared" si="0"/>
-        <v>2684</v>
-      </c>
-      <c r="I31" s="1">
-        <f t="shared" si="1"/>
+        <v>2670</v>
+      </c>
+      <c r="J31" s="1">
+        <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="K31" t="str">
-        <f t="shared" si="2"/>
-        <v>D-heat</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L31" t="str">
+        <f t="shared" si="4"/>
+        <v>T-heat</v>
+      </c>
+      <c r="M31" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B32" s="1" t="str">
         <f>VLOOKUP(D32,list!A:F,6,FALSE)</f>
-        <v>D</v>
+        <v>T</v>
       </c>
       <c r="C32" s="1">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>48</v>
+        <v>94</v>
       </c>
       <c r="E32" s="1">
-        <v>182</v>
-      </c>
-      <c r="F32" s="1">
-        <f>ROUND(((45*60)/E32),0)</f>
-        <v>15</v>
+        <v>30</v>
+      </c>
+      <c r="F32" s="15">
+        <v>138</v>
       </c>
       <c r="G32" s="1">
-        <f>60-F32</f>
-        <v>45</v>
+        <f t="shared" si="0"/>
+        <v>20</v>
       </c>
       <c r="H32" s="1">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="I32" s="1">
+        <f t="shared" si="2"/>
+        <v>2760</v>
+      </c>
+      <c r="J32" s="1">
+        <f t="shared" si="3"/>
+        <v>46</v>
+      </c>
+      <c r="L32" t="str">
+        <f t="shared" si="4"/>
+        <v>T-desiccation</v>
+      </c>
+      <c r="M32" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" t="str">
+        <f>VLOOKUP(D33,list!A:D,4,FALSE)</f>
+        <v>control</v>
+      </c>
+      <c r="B33" s="1" t="str">
+        <f>VLOOKUP(D33,list!A:F,6,FALSE)</f>
+        <v>T</v>
+      </c>
+      <c r="C33" s="1">
+        <v>31</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E33" s="1">
+        <v>31</v>
+      </c>
+      <c r="F33" s="1">
+        <v>200</v>
+      </c>
+      <c r="G33" s="1">
         <f t="shared" si="0"/>
-        <v>2730</v>
-      </c>
-      <c r="I32" s="1">
+        <v>14</v>
+      </c>
+      <c r="H33" s="1">
         <f t="shared" si="1"/>
         <v>46</v>
       </c>
-      <c r="K32" t="str">
-        <f t="shared" si="2"/>
-        <v>D-heat</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A33" t="s">
-        <v>283</v>
-      </c>
-      <c r="B33" s="1" t="str">
-        <f>VLOOKUP(D33,list!A:F,6,FALSE)</f>
-        <v>D</v>
-      </c>
-      <c r="C33" s="1">
-        <v>32</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E33" s="1">
-        <v>188</v>
-      </c>
-      <c r="F33" s="1">
-        <f>ROUND(((45*60)/E33),0)</f>
-        <v>14</v>
-      </c>
-      <c r="G33" s="1">
-        <f>60-F33</f>
-        <v>46</v>
-      </c>
-      <c r="H33" s="1">
-        <f t="shared" si="0"/>
-        <v>2632</v>
-      </c>
       <c r="I33" s="1">
-        <f t="shared" si="1"/>
-        <v>44</v>
-      </c>
-      <c r="K33" t="str">
-        <f t="shared" si="2"/>
-        <v>D-heat</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.4">
+        <f>ROUND(F33*G33,0)</f>
+        <v>2800</v>
+      </c>
+      <c r="J33" s="1">
+        <f>ROUND(I33/60,0)</f>
+        <v>47</v>
+      </c>
+      <c r="L33" t="str">
+        <f t="shared" si="4"/>
+        <v>T-control</v>
+      </c>
+      <c r="M33" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
         <v>283</v>
       </c>
@@ -9365,74 +9798,87 @@
         <v>D</v>
       </c>
       <c r="C34" s="1">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E34" s="1">
-        <v>200</v>
+        <v>32</v>
       </c>
       <c r="F34" s="1">
-        <f>ROUND(((45*60)/E34),0)</f>
+        <v>188</v>
+      </c>
+      <c r="G34" s="1">
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="G34" s="1">
-        <f>60-F34</f>
+      <c r="H34" s="1">
+        <f t="shared" si="1"/>
         <v>46</v>
       </c>
-      <c r="H34" s="1">
-        <f t="shared" si="0"/>
-        <v>2800</v>
-      </c>
       <c r="I34" s="1">
-        <f t="shared" si="1"/>
-        <v>47</v>
-      </c>
-      <c r="K34" t="str">
         <f t="shared" si="2"/>
+        <v>2632</v>
+      </c>
+      <c r="J34" s="1">
+        <f t="shared" si="3"/>
+        <v>44</v>
+      </c>
+      <c r="L34" t="str">
+        <f t="shared" si="4"/>
         <v>D-heat</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A35" t="s">
-        <v>283</v>
+      <c r="M34" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" t="str">
+        <f>VLOOKUP(D35,list!A:D,4,FALSE)</f>
+        <v>control</v>
       </c>
       <c r="B35" s="1" t="str">
         <f>VLOOKUP(D35,list!A:F,6,FALSE)</f>
-        <v>D</v>
+        <v>T</v>
       </c>
       <c r="C35" s="1">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="E35" s="1">
-        <v>144</v>
+        <v>33</v>
       </c>
       <c r="F35" s="1">
-        <f>ROUND(((45*60)/E35),0)</f>
-        <v>19</v>
+        <v>162</v>
       </c>
       <c r="G35" s="1">
-        <f>60-F35</f>
-        <v>41</v>
+        <f t="shared" ref="G35:G66" si="5">ROUND(((45*60)/F35),0)</f>
+        <v>17</v>
       </c>
       <c r="H35" s="1">
-        <f t="shared" si="0"/>
-        <v>2736</v>
+        <f t="shared" ref="H35:H66" si="6">60-G35</f>
+        <v>43</v>
       </c>
       <c r="I35" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="I35:I66" si="7">ROUND(F35*G35,0)</f>
+        <v>2754</v>
+      </c>
+      <c r="J35" s="1">
+        <f t="shared" ref="J35:J66" si="8">ROUND(I35/60,0)</f>
         <v>46</v>
       </c>
-      <c r="K35" t="str">
-        <f t="shared" si="2"/>
-        <v>D-heat</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L35" t="str">
+        <f t="shared" ref="L35:L66" si="9">B35&amp;"-"&amp;A35</f>
+        <v>T-control</v>
+      </c>
+      <c r="M35" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
         <v>283</v>
       </c>
@@ -9441,36 +9887,42 @@
         <v>D</v>
       </c>
       <c r="C36" s="1">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="E36" s="1">
-        <v>142</v>
+        <v>34</v>
       </c>
       <c r="F36" s="1">
-        <f>ROUND(((45*60)/E36),0)</f>
-        <v>19</v>
+        <v>200</v>
       </c>
       <c r="G36" s="1">
-        <f>60-F36</f>
-        <v>41</v>
+        <f t="shared" si="5"/>
+        <v>14</v>
       </c>
       <c r="H36" s="1">
-        <f t="shared" si="0"/>
-        <v>2698</v>
+        <f t="shared" si="6"/>
+        <v>46</v>
       </c>
       <c r="I36" s="1">
-        <f t="shared" si="1"/>
-        <v>45</v>
-      </c>
-      <c r="K36" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
+        <v>2800</v>
+      </c>
+      <c r="J36" s="1">
+        <f t="shared" si="8"/>
+        <v>47</v>
+      </c>
+      <c r="L36" t="str">
+        <f t="shared" si="9"/>
         <v>D-heat</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="M36" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
         <v>283</v>
       </c>
@@ -9479,454 +9931,528 @@
         <v>D</v>
       </c>
       <c r="C37" s="1">
+        <v>35</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E37" s="1">
+        <v>35</v>
+      </c>
+      <c r="F37" s="1">
+        <v>144</v>
+      </c>
+      <c r="G37" s="1">
+        <f t="shared" si="5"/>
+        <v>19</v>
+      </c>
+      <c r="H37" s="1">
+        <f t="shared" si="6"/>
         <v>41</v>
       </c>
-      <c r="D37" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E37" s="15">
-        <v>176</v>
-      </c>
-      <c r="F37" s="1">
-        <f>ROUND(((45*60)/E37),0)</f>
-        <v>15</v>
-      </c>
-      <c r="G37" s="1">
-        <f>60-F37</f>
-        <v>45</v>
-      </c>
-      <c r="H37" s="1">
-        <f t="shared" si="0"/>
-        <v>2640</v>
-      </c>
       <c r="I37" s="1">
-        <f t="shared" si="1"/>
-        <v>44</v>
-      </c>
-      <c r="K37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
+        <v>2736</v>
+      </c>
+      <c r="J37" s="1">
+        <f t="shared" si="8"/>
+        <v>46</v>
+      </c>
+      <c r="L37" t="str">
+        <f t="shared" si="9"/>
         <v>D-heat</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A38" t="s">
-        <v>283</v>
+      <c r="M37" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" t="str">
+        <f>VLOOKUP(D38,list!A:D,4,FALSE)</f>
+        <v>control</v>
       </c>
       <c r="B38" s="1" t="str">
         <f>VLOOKUP(D38,list!A:F,6,FALSE)</f>
         <v>D</v>
       </c>
       <c r="C38" s="1">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="E38" s="1">
-        <v>174</v>
+        <v>36</v>
       </c>
       <c r="F38" s="1">
-        <f>ROUND(((45*60)/E38),0)</f>
+        <v>164</v>
+      </c>
+      <c r="G38" s="1">
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
-      <c r="G38" s="1">
-        <f>60-F38</f>
+      <c r="H38" s="1">
+        <f t="shared" si="6"/>
         <v>44</v>
       </c>
-      <c r="H38" s="1">
-        <f t="shared" si="0"/>
-        <v>2784</v>
-      </c>
       <c r="I38" s="1">
-        <f t="shared" si="1"/>
-        <v>46</v>
-      </c>
-      <c r="K38" t="str">
-        <f t="shared" si="2"/>
-        <v>D-heat</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A39" t="s">
-        <v>283</v>
+        <f t="shared" si="7"/>
+        <v>2624</v>
+      </c>
+      <c r="J38" s="1">
+        <f t="shared" si="8"/>
+        <v>44</v>
+      </c>
+      <c r="L38" t="str">
+        <f t="shared" si="9"/>
+        <v>D-control</v>
+      </c>
+      <c r="M38" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" t="str">
+        <f>VLOOKUP(D39,list!A:D,4,FALSE)</f>
+        <v>control</v>
       </c>
       <c r="B39" s="1" t="str">
         <f>VLOOKUP(D39,list!A:F,6,FALSE)</f>
-        <v>T</v>
+        <v>D</v>
       </c>
       <c r="C39" s="1">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="E39" s="1">
-        <v>114</v>
+        <v>37</v>
       </c>
       <c r="F39" s="1">
-        <f>ROUND(((45*60)/E39),0)</f>
-        <v>24</v>
+        <v>178</v>
       </c>
       <c r="G39" s="1">
-        <f>60-F39</f>
-        <v>36</v>
+        <f t="shared" si="5"/>
+        <v>15</v>
       </c>
       <c r="H39" s="1">
-        <f t="shared" si="0"/>
-        <v>2736</v>
+        <f t="shared" si="6"/>
+        <v>45</v>
       </c>
       <c r="I39" s="1">
-        <f t="shared" si="1"/>
-        <v>46</v>
-      </c>
-      <c r="K39" t="str">
-        <f t="shared" si="2"/>
-        <v>T-heat</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.4">
+        <f t="shared" si="7"/>
+        <v>2670</v>
+      </c>
+      <c r="J39" s="1">
+        <f t="shared" si="8"/>
+        <v>45</v>
+      </c>
+      <c r="L39" t="str">
+        <f t="shared" si="9"/>
+        <v>D-control</v>
+      </c>
+      <c r="M39" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
         <v>283</v>
       </c>
       <c r="B40" s="1" t="str">
         <f>VLOOKUP(D40,list!A:F,6,FALSE)</f>
-        <v>T</v>
+        <v>D</v>
       </c>
       <c r="C40" s="1">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="E40" s="1">
+        <v>38</v>
+      </c>
+      <c r="F40" s="1">
         <v>142</v>
       </c>
-      <c r="F40" s="1">
-        <f>ROUND(((45*60)/E40),0)</f>
+      <c r="G40" s="1">
+        <f t="shared" si="5"/>
         <v>19</v>
       </c>
-      <c r="G40" s="1">
-        <f>60-F40</f>
+      <c r="H40" s="1">
+        <f t="shared" si="6"/>
         <v>41</v>
       </c>
-      <c r="H40" s="1">
-        <f t="shared" si="0"/>
+      <c r="I40" s="1">
+        <f t="shared" si="7"/>
         <v>2698</v>
       </c>
-      <c r="I40" s="1">
-        <f t="shared" si="1"/>
+      <c r="J40" s="1">
+        <f t="shared" si="8"/>
         <v>45</v>
       </c>
-      <c r="K40" t="str">
-        <f t="shared" si="2"/>
-        <v>T-heat</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A41" t="s">
-        <v>283</v>
+      <c r="L40" t="str">
+        <f t="shared" si="9"/>
+        <v>D-heat</v>
+      </c>
+      <c r="M40" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" t="str">
+        <f>VLOOKUP(D41,list!A:D,4,FALSE)</f>
+        <v>control</v>
       </c>
       <c r="B41" s="1" t="str">
         <f>VLOOKUP(D41,list!A:F,6,FALSE)</f>
         <v>T</v>
       </c>
       <c r="C41" s="1">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E41" s="1">
-        <v>82.6</v>
+        <v>39</v>
       </c>
       <c r="F41" s="1">
-        <f>ROUND(((45*60)/E41),0)</f>
-        <v>33</v>
+        <v>166</v>
       </c>
       <c r="G41" s="1">
-        <f>60-F41</f>
-        <v>27</v>
+        <f t="shared" si="5"/>
+        <v>16</v>
       </c>
       <c r="H41" s="1">
-        <f t="shared" si="0"/>
-        <v>2726</v>
+        <f t="shared" si="6"/>
+        <v>44</v>
       </c>
       <c r="I41" s="1">
-        <f t="shared" si="1"/>
-        <v>45</v>
-      </c>
-      <c r="K41" t="str">
-        <f t="shared" si="2"/>
-        <v>T-heat</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.4">
+        <f t="shared" si="7"/>
+        <v>2656</v>
+      </c>
+      <c r="J41" s="1">
+        <f t="shared" si="8"/>
+        <v>44</v>
+      </c>
+      <c r="L41" t="str">
+        <f t="shared" si="9"/>
+        <v>T-control</v>
+      </c>
+      <c r="M41" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B42" s="1" t="str">
         <f>VLOOKUP(D42,list!A:F,6,FALSE)</f>
-        <v>T</v>
+        <v>D</v>
       </c>
       <c r="C42" s="1">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="E42" s="1">
-        <v>164</v>
+        <v>40</v>
       </c>
       <c r="F42" s="1">
-        <f>ROUND(((45*60)/E42),0)</f>
-        <v>16</v>
+        <v>178</v>
       </c>
       <c r="G42" s="1">
-        <f>60-F42</f>
-        <v>44</v>
+        <f t="shared" si="5"/>
+        <v>15</v>
       </c>
       <c r="H42" s="1">
-        <f t="shared" si="0"/>
-        <v>2624</v>
+        <f t="shared" si="6"/>
+        <v>45</v>
       </c>
       <c r="I42" s="1">
-        <f t="shared" si="1"/>
-        <v>44</v>
-      </c>
-      <c r="K42" t="str">
-        <f t="shared" si="2"/>
-        <v>T-heat</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.4">
+        <f t="shared" si="7"/>
+        <v>2670</v>
+      </c>
+      <c r="J42" s="1">
+        <f t="shared" si="8"/>
+        <v>45</v>
+      </c>
+      <c r="L42" t="str">
+        <f t="shared" si="9"/>
+        <v>D-desiccation</v>
+      </c>
+      <c r="M42" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
         <v>283</v>
       </c>
       <c r="B43" s="1" t="str">
         <f>VLOOKUP(D43,list!A:F,6,FALSE)</f>
-        <v>T</v>
+        <v>D</v>
       </c>
       <c r="C43" s="1">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="E43" s="1">
-        <v>108</v>
-      </c>
-      <c r="F43" s="1">
-        <f>ROUND(((45*60)/E43),0)</f>
-        <v>25</v>
+        <v>41</v>
+      </c>
+      <c r="F43" s="15">
+        <v>176</v>
       </c>
       <c r="G43" s="1">
-        <f>60-F43</f>
-        <v>35</v>
+        <f t="shared" si="5"/>
+        <v>15</v>
       </c>
       <c r="H43" s="1">
-        <f t="shared" si="0"/>
-        <v>2700</v>
+        <f t="shared" si="6"/>
+        <v>45</v>
       </c>
       <c r="I43" s="1">
-        <f t="shared" si="1"/>
-        <v>45</v>
-      </c>
-      <c r="K43" t="str">
-        <f t="shared" si="2"/>
-        <v>T-heat</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A44" t="s">
-        <v>283</v>
+        <f t="shared" si="7"/>
+        <v>2640</v>
+      </c>
+      <c r="J43" s="1">
+        <f t="shared" si="8"/>
+        <v>44</v>
+      </c>
+      <c r="L43" t="str">
+        <f t="shared" si="9"/>
+        <v>D-heat</v>
+      </c>
+      <c r="M43" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" t="str">
+        <f>VLOOKUP(D44,list!A:D,4,FALSE)</f>
+        <v>control</v>
       </c>
       <c r="B44" s="1" t="str">
         <f>VLOOKUP(D44,list!A:F,6,FALSE)</f>
         <v>T</v>
       </c>
       <c r="C44" s="1">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E44" s="1">
-        <v>124</v>
+        <v>42</v>
       </c>
       <c r="F44" s="1">
-        <f>ROUND(((45*60)/E44),0)</f>
-        <v>22</v>
+        <v>142</v>
       </c>
       <c r="G44" s="1">
-        <f>60-F44</f>
-        <v>38</v>
+        <f t="shared" si="5"/>
+        <v>19</v>
       </c>
       <c r="H44" s="1">
-        <f t="shared" si="0"/>
-        <v>2728</v>
+        <f t="shared" si="6"/>
+        <v>41</v>
       </c>
       <c r="I44" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
+        <v>2698</v>
+      </c>
+      <c r="J44" s="1">
+        <f t="shared" si="8"/>
         <v>45</v>
       </c>
-      <c r="K44" t="str">
-        <f t="shared" si="2"/>
-        <v>T-heat</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L44" t="str">
+        <f t="shared" si="9"/>
+        <v>T-control</v>
+      </c>
+      <c r="M44" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B45" s="1" t="str">
         <f>VLOOKUP(D45,list!A:F,6,FALSE)</f>
-        <v>T</v>
+        <v>D</v>
       </c>
       <c r="C45" s="1">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="E45" s="1">
-        <v>108</v>
+        <v>43</v>
       </c>
       <c r="F45" s="1">
-        <f>ROUND(((45*60)/E45),0)</f>
-        <v>25</v>
+        <v>182</v>
       </c>
       <c r="G45" s="1">
-        <f>60-F45</f>
-        <v>35</v>
+        <f t="shared" si="5"/>
+        <v>15</v>
       </c>
       <c r="H45" s="1">
-        <f t="shared" si="0"/>
-        <v>2700</v>
+        <f t="shared" si="6"/>
+        <v>45</v>
       </c>
       <c r="I45" s="1">
-        <f t="shared" si="1"/>
-        <v>45</v>
-      </c>
-      <c r="K45" t="str">
-        <f t="shared" si="2"/>
-        <v>T-heat</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.4">
+        <f t="shared" si="7"/>
+        <v>2730</v>
+      </c>
+      <c r="J45" s="1">
+        <f t="shared" si="8"/>
+        <v>46</v>
+      </c>
+      <c r="L45" t="str">
+        <f t="shared" si="9"/>
+        <v>D-desiccation</v>
+      </c>
+      <c r="M45" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B46" s="1" t="str">
         <f>VLOOKUP(D46,list!A:F,6,FALSE)</f>
         <v>T</v>
       </c>
       <c r="C46" s="1">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="E46" s="1">
-        <v>130</v>
+        <v>44</v>
       </c>
       <c r="F46" s="1">
-        <f>ROUND(((45*60)/E46),0)</f>
-        <v>21</v>
+        <v>90.4</v>
       </c>
       <c r="G46" s="1">
-        <f>60-F46</f>
-        <v>39</v>
+        <f t="shared" si="5"/>
+        <v>30</v>
       </c>
       <c r="H46" s="1">
-        <f t="shared" si="0"/>
-        <v>2730</v>
+        <f t="shared" si="6"/>
+        <v>30</v>
       </c>
       <c r="I46" s="1">
-        <f t="shared" si="1"/>
-        <v>46</v>
-      </c>
-      <c r="K46" t="str">
-        <f t="shared" si="2"/>
-        <v>T-heat</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.4">
+        <f t="shared" si="7"/>
+        <v>2712</v>
+      </c>
+      <c r="J46" s="1">
+        <f t="shared" si="8"/>
+        <v>45</v>
+      </c>
+      <c r="L46" t="str">
+        <f t="shared" si="9"/>
+        <v>T-desiccation</v>
+      </c>
+      <c r="M46" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B47" s="1" t="str">
         <f>VLOOKUP(D47,list!A:F,6,FALSE)</f>
-        <v>T</v>
+        <v>D</v>
       </c>
       <c r="C47" s="1">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="E47" s="1">
-        <v>124</v>
+        <v>45</v>
       </c>
       <c r="F47" s="1">
-        <f>ROUND(((45*60)/E47),0)</f>
-        <v>22</v>
+        <v>146</v>
       </c>
       <c r="G47" s="1">
-        <f>60-F47</f>
-        <v>38</v>
+        <f t="shared" si="5"/>
+        <v>18</v>
       </c>
       <c r="H47" s="1">
-        <f t="shared" si="0"/>
-        <v>2728</v>
+        <f t="shared" si="6"/>
+        <v>42</v>
       </c>
       <c r="I47" s="1">
-        <f t="shared" si="1"/>
-        <v>45</v>
-      </c>
-      <c r="K47" t="str">
-        <f t="shared" si="2"/>
-        <v>T-heat</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A48" t="s">
-        <v>283</v>
+        <f t="shared" si="7"/>
+        <v>2628</v>
+      </c>
+      <c r="J47" s="1">
+        <f t="shared" si="8"/>
+        <v>44</v>
+      </c>
+      <c r="L47" t="str">
+        <f t="shared" si="9"/>
+        <v>D-desiccation</v>
+      </c>
+      <c r="M47" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" t="str">
+        <f>VLOOKUP(D48,list!A:D,4,FALSE)</f>
+        <v>control</v>
       </c>
       <c r="B48" s="1" t="str">
         <f>VLOOKUP(D48,list!A:F,6,FALSE)</f>
         <v>T</v>
       </c>
       <c r="C48" s="1">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="E48" s="1">
-        <v>178</v>
+        <v>46</v>
       </c>
       <c r="F48" s="1">
-        <f>ROUND(((45*60)/E48),0)</f>
+        <v>180</v>
+      </c>
+      <c r="G48" s="1">
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
-      <c r="G48" s="1">
-        <f>60-F48</f>
+      <c r="H48" s="1">
+        <f t="shared" si="6"/>
         <v>45</v>
       </c>
-      <c r="H48" s="1">
-        <f t="shared" si="0"/>
-        <v>2670</v>
-      </c>
       <c r="I48" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
+        <v>2700</v>
+      </c>
+      <c r="J48" s="1">
+        <f t="shared" si="8"/>
         <v>45</v>
       </c>
-      <c r="K48" t="str">
-        <f t="shared" si="2"/>
-        <v>T-heat</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L48" t="str">
+        <f t="shared" si="9"/>
+        <v>T-control</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
         <v>283</v>
       </c>
@@ -9941,371 +10467,405 @@
         <v>70</v>
       </c>
       <c r="E49" s="1">
+        <v>47</v>
+      </c>
+      <c r="F49" s="1">
         <v>66.400000000000006</v>
       </c>
-      <c r="F49" s="1">
-        <f>ROUND(((45*60)/E49),0)</f>
+      <c r="G49" s="1">
+        <f t="shared" si="5"/>
         <v>41</v>
       </c>
-      <c r="G49" s="1">
-        <f>60-F49</f>
+      <c r="H49" s="1">
+        <f t="shared" si="6"/>
         <v>19</v>
       </c>
-      <c r="H49" s="1">
-        <f t="shared" si="0"/>
+      <c r="I49" s="1">
+        <f t="shared" si="7"/>
         <v>2722</v>
       </c>
-      <c r="I49" s="1">
-        <f t="shared" si="1"/>
+      <c r="J49" s="1">
+        <f t="shared" si="8"/>
         <v>45</v>
       </c>
-      <c r="K49" t="str">
-        <f t="shared" si="2"/>
+      <c r="L49" t="str">
+        <f t="shared" si="9"/>
         <v>T-heat</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A50" t="s">
-        <v>283</v>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" t="str">
+        <f>VLOOKUP(D50,list!A:D,4,FALSE)</f>
+        <v>control</v>
       </c>
       <c r="B50" s="1" t="str">
         <f>VLOOKUP(D50,list!A:F,6,FALSE)</f>
-        <v>T</v>
+        <v>D</v>
       </c>
       <c r="C50" s="1">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="E50" s="1">
-        <v>196</v>
+        <v>48</v>
       </c>
       <c r="F50" s="1">
-        <f>ROUND(((45*60)/E50),0)</f>
-        <v>14</v>
+        <v>120</v>
       </c>
       <c r="G50" s="1">
-        <f>60-F50</f>
+        <f t="shared" si="5"/>
+        <v>23</v>
+      </c>
+      <c r="H50" s="1">
+        <f t="shared" si="6"/>
+        <v>37</v>
+      </c>
+      <c r="I50" s="1">
+        <f t="shared" si="7"/>
+        <v>2760</v>
+      </c>
+      <c r="J50" s="1">
+        <f t="shared" si="8"/>
         <v>46</v>
       </c>
-      <c r="H50" s="1">
-        <f t="shared" si="0"/>
-        <v>2744</v>
-      </c>
-      <c r="I50" s="1">
-        <f t="shared" si="1"/>
-        <v>46</v>
-      </c>
-      <c r="K50" t="str">
-        <f t="shared" si="2"/>
-        <v>T-heat</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A51" t="s">
-        <v>284</v>
+      <c r="L50" t="str">
+        <f t="shared" si="9"/>
+        <v>D-control</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" t="str">
+        <f>VLOOKUP(D51,list!A:D,4,FALSE)</f>
+        <v>control</v>
       </c>
       <c r="B51" s="1" t="str">
         <f>VLOOKUP(D51,list!A:F,6,FALSE)</f>
         <v>D</v>
       </c>
       <c r="C51" s="1">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>82</v>
+        <v>29</v>
       </c>
       <c r="E51" s="1">
-        <v>178</v>
+        <v>49</v>
       </c>
       <c r="F51" s="1">
-        <f>ROUND(((45*60)/E51),0)</f>
-        <v>15</v>
+        <v>142</v>
       </c>
       <c r="G51" s="1">
-        <f>60-F51</f>
+        <f t="shared" si="5"/>
+        <v>19</v>
+      </c>
+      <c r="H51" s="1">
+        <f t="shared" si="6"/>
+        <v>41</v>
+      </c>
+      <c r="I51" s="1">
+        <f t="shared" si="7"/>
+        <v>2698</v>
+      </c>
+      <c r="J51" s="1">
+        <f t="shared" si="8"/>
         <v>45</v>
       </c>
-      <c r="H51" s="1">
-        <f t="shared" si="0"/>
-        <v>2670</v>
-      </c>
-      <c r="I51" s="1">
-        <f t="shared" si="1"/>
-        <v>45</v>
-      </c>
-      <c r="K51" t="str">
-        <f t="shared" si="2"/>
-        <v>D-desiccation</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A52" t="s">
-        <v>284</v>
+      <c r="L51" t="str">
+        <f t="shared" si="9"/>
+        <v>D-control</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" t="str">
+        <f>VLOOKUP(D52,list!A:D,4,FALSE)</f>
+        <v>control</v>
       </c>
       <c r="B52" s="1" t="str">
         <f>VLOOKUP(D52,list!A:F,6,FALSE)</f>
         <v>D</v>
       </c>
       <c r="C52" s="1">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>79</v>
+        <v>30</v>
       </c>
       <c r="E52" s="1">
-        <v>182</v>
+        <v>50</v>
       </c>
       <c r="F52" s="1">
-        <f>ROUND(((45*60)/E52),0)</f>
-        <v>15</v>
+        <v>134</v>
       </c>
       <c r="G52" s="1">
-        <f>60-F52</f>
+        <f t="shared" si="5"/>
+        <v>20</v>
+      </c>
+      <c r="H52" s="1">
+        <f t="shared" si="6"/>
+        <v>40</v>
+      </c>
+      <c r="I52" s="1">
+        <f t="shared" si="7"/>
+        <v>2680</v>
+      </c>
+      <c r="J52" s="1">
+        <f t="shared" si="8"/>
         <v>45</v>
       </c>
-      <c r="H52" s="1">
-        <f t="shared" si="0"/>
-        <v>2730</v>
-      </c>
-      <c r="I52" s="1">
-        <f t="shared" si="1"/>
-        <v>46</v>
-      </c>
-      <c r="K52" t="str">
-        <f t="shared" si="2"/>
-        <v>D-desiccation</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L52" t="str">
+        <f t="shared" si="9"/>
+        <v>D-control</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
         <v>284</v>
       </c>
       <c r="B53" s="1" t="str">
         <f>VLOOKUP(D53,list!A:F,6,FALSE)</f>
-        <v>D</v>
+        <v>T</v>
       </c>
       <c r="C53" s="1">
+        <v>51</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E53" s="1">
+        <v>51</v>
+      </c>
+      <c r="F53" s="1">
+        <v>186</v>
+      </c>
+      <c r="G53" s="1">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+      <c r="H53" s="1">
+        <f t="shared" si="6"/>
         <v>45</v>
       </c>
-      <c r="D53" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E53" s="1">
-        <v>146</v>
-      </c>
-      <c r="F53" s="1">
-        <f>ROUND(((45*60)/E53),0)</f>
-        <v>18</v>
-      </c>
-      <c r="G53" s="1">
-        <f>60-F53</f>
-        <v>42</v>
-      </c>
-      <c r="H53" s="1">
-        <f t="shared" si="0"/>
-        <v>2628</v>
-      </c>
       <c r="I53" s="1">
-        <f t="shared" si="1"/>
-        <v>44</v>
-      </c>
-      <c r="K53" t="str">
-        <f t="shared" si="2"/>
-        <v>D-desiccation</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.4">
+        <f t="shared" si="7"/>
+        <v>2790</v>
+      </c>
+      <c r="J53" s="1">
+        <f t="shared" si="8"/>
+        <v>47</v>
+      </c>
+      <c r="L53" t="str">
+        <f t="shared" si="9"/>
+        <v>T-desiccation</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
         <v>284</v>
       </c>
       <c r="B54" s="1" t="str">
         <f>VLOOKUP(D54,list!A:F,6,FALSE)</f>
-        <v>D</v>
+        <v>T</v>
       </c>
       <c r="C54" s="1">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="E54" s="1">
-        <v>180</v>
+        <v>52</v>
       </c>
       <c r="F54" s="1">
-        <f>ROUND(((45*60)/E54),0)</f>
-        <v>15</v>
+        <v>116</v>
       </c>
       <c r="G54" s="1">
-        <f>60-F54</f>
-        <v>45</v>
+        <f t="shared" si="5"/>
+        <v>23</v>
       </c>
       <c r="H54" s="1">
-        <f t="shared" si="0"/>
-        <v>2700</v>
+        <f t="shared" si="6"/>
+        <v>37</v>
       </c>
       <c r="I54" s="1">
-        <f t="shared" si="1"/>
-        <v>45</v>
-      </c>
-      <c r="K54" t="str">
-        <f t="shared" si="2"/>
-        <v>D-desiccation</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.4">
+        <f t="shared" si="7"/>
+        <v>2668</v>
+      </c>
+      <c r="J54" s="1">
+        <f t="shared" si="8"/>
+        <v>44</v>
+      </c>
+      <c r="L54" t="str">
+        <f t="shared" si="9"/>
+        <v>T-desiccation</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
         <v>284</v>
       </c>
       <c r="B55" s="1" t="str">
         <f>VLOOKUP(D55,list!A:F,6,FALSE)</f>
-        <v>D</v>
+        <v>T</v>
       </c>
       <c r="C55" s="1">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="E55" s="1">
-        <v>198</v>
+        <v>53</v>
       </c>
       <c r="F55" s="1">
-        <f>ROUND(((45*60)/E55),0)</f>
-        <v>14</v>
+        <v>130</v>
       </c>
       <c r="G55" s="1">
-        <f>60-F55</f>
+        <f t="shared" si="5"/>
+        <v>21</v>
+      </c>
+      <c r="H55" s="1">
+        <f t="shared" si="6"/>
+        <v>39</v>
+      </c>
+      <c r="I55" s="1">
+        <f t="shared" si="7"/>
+        <v>2730</v>
+      </c>
+      <c r="J55" s="1">
+        <f t="shared" si="8"/>
         <v>46</v>
       </c>
-      <c r="H55" s="1">
-        <f t="shared" si="0"/>
-        <v>2772</v>
-      </c>
-      <c r="I55" s="1">
-        <f t="shared" si="1"/>
-        <v>46</v>
-      </c>
-      <c r="K55" t="str">
-        <f t="shared" si="2"/>
-        <v>D-desiccation</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L55" t="str">
+        <f t="shared" si="9"/>
+        <v>T-desiccation</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
         <v>284</v>
       </c>
       <c r="B56" s="1" t="str">
         <f>VLOOKUP(D56,list!A:F,6,FALSE)</f>
-        <v>D</v>
+        <v>T</v>
       </c>
       <c r="C56" s="1">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E56" s="15">
-        <v>22.8</v>
+        <v>99</v>
+      </c>
+      <c r="E56" s="1">
+        <v>54</v>
       </c>
       <c r="F56" s="1">
-        <v>50</v>
+        <v>112</v>
       </c>
       <c r="G56" s="1">
-        <f>60-F56</f>
-        <v>10</v>
+        <f t="shared" si="5"/>
+        <v>24</v>
       </c>
       <c r="H56" s="1">
-        <f t="shared" si="0"/>
-        <v>1140</v>
+        <f t="shared" si="6"/>
+        <v>36</v>
       </c>
       <c r="I56" s="1">
-        <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-      <c r="K56" t="str">
-        <f t="shared" si="2"/>
-        <v>D-desiccation</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.4">
+        <f t="shared" si="7"/>
+        <v>2688</v>
+      </c>
+      <c r="J56" s="1">
+        <f t="shared" si="8"/>
+        <v>45</v>
+      </c>
+      <c r="L56" t="str">
+        <f t="shared" si="9"/>
+        <v>T-desiccation</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B57" s="1" t="str">
         <f>VLOOKUP(D57,list!A:F,6,FALSE)</f>
         <v>D</v>
       </c>
       <c r="C57" s="1">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>85</v>
+        <v>49</v>
       </c>
       <c r="E57" s="1">
-        <v>186</v>
+        <v>55</v>
       </c>
       <c r="F57" s="1">
-        <f>ROUND(((45*60)/E57),0)</f>
-        <v>15</v>
+        <v>174</v>
       </c>
       <c r="G57" s="1">
-        <f>60-F57</f>
-        <v>45</v>
+        <f t="shared" si="5"/>
+        <v>16</v>
       </c>
       <c r="H57" s="1">
-        <f t="shared" si="0"/>
-        <v>2790</v>
+        <f t="shared" si="6"/>
+        <v>44</v>
       </c>
       <c r="I57" s="1">
-        <f t="shared" si="1"/>
-        <v>47</v>
-      </c>
-      <c r="K57" t="str">
-        <f t="shared" si="2"/>
-        <v>D-desiccation</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.4">
+        <f t="shared" si="7"/>
+        <v>2784</v>
+      </c>
+      <c r="J57" s="1">
+        <f t="shared" si="8"/>
+        <v>46</v>
+      </c>
+      <c r="L57" t="str">
+        <f t="shared" si="9"/>
+        <v>D-heat</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B58" s="1" t="str">
         <f>VLOOKUP(D58,list!A:F,6,FALSE)</f>
-        <v>D</v>
+        <v>T</v>
       </c>
       <c r="C58" s="1">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="E58" s="1">
-        <v>122</v>
+        <v>56</v>
       </c>
       <c r="F58" s="1">
-        <f>ROUND(((45*60)/E58),0)</f>
-        <v>22</v>
+        <v>196</v>
       </c>
       <c r="G58" s="1">
-        <f>60-F58</f>
-        <v>38</v>
+        <f t="shared" si="5"/>
+        <v>14</v>
       </c>
       <c r="H58" s="1">
-        <f t="shared" si="0"/>
-        <v>2684</v>
+        <f t="shared" si="6"/>
+        <v>46</v>
       </c>
       <c r="I58" s="1">
-        <f t="shared" si="1"/>
-        <v>45</v>
-      </c>
-      <c r="K58" t="str">
-        <f t="shared" si="2"/>
-        <v>D-desiccation</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.4">
+        <f t="shared" si="7"/>
+        <v>2744</v>
+      </c>
+      <c r="J58" s="1">
+        <f t="shared" si="8"/>
+        <v>46</v>
+      </c>
+      <c r="L58" t="str">
+        <f t="shared" si="9"/>
+        <v>T-heat</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
         <v>284</v>
       </c>
@@ -10314,112 +10874,122 @@
         <v>D</v>
       </c>
       <c r="C59" s="1">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E59" s="15">
-        <v>61</v>
+        <v>80</v>
+      </c>
+      <c r="E59" s="1">
+        <v>57</v>
       </c>
       <c r="F59" s="1">
-        <f>ROUND(((45*60)/E59),0)</f>
-        <v>44</v>
+        <v>180</v>
       </c>
       <c r="G59" s="1">
-        <f>60-F59</f>
-        <v>16</v>
+        <f t="shared" si="5"/>
+        <v>15</v>
       </c>
       <c r="H59" s="1">
-        <f t="shared" si="0"/>
-        <v>2684</v>
+        <f t="shared" si="6"/>
+        <v>45</v>
       </c>
       <c r="I59" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
+        <v>2700</v>
+      </c>
+      <c r="J59" s="1">
+        <f t="shared" si="8"/>
         <v>45</v>
       </c>
-      <c r="K59" t="str">
-        <f t="shared" si="2"/>
+      <c r="L59" t="str">
+        <f t="shared" si="9"/>
         <v>D-desiccation</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
         <v>284</v>
       </c>
       <c r="B60" s="1" t="str">
         <f>VLOOKUP(D60,list!A:F,6,FALSE)</f>
-        <v>D</v>
+        <v>T</v>
       </c>
       <c r="C60" s="1">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="E60" s="1">
-        <v>134</v>
+        <v>58</v>
       </c>
       <c r="F60" s="1">
-        <f>ROUND(((45*60)/E60),0)</f>
-        <v>20</v>
+        <v>86.4</v>
       </c>
       <c r="G60" s="1">
-        <f>60-F60</f>
-        <v>40</v>
+        <f t="shared" si="5"/>
+        <v>31</v>
       </c>
       <c r="H60" s="1">
-        <f t="shared" si="0"/>
-        <v>2680</v>
+        <f t="shared" si="6"/>
+        <v>29</v>
       </c>
       <c r="I60" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
+        <v>2678</v>
+      </c>
+      <c r="J60" s="1">
+        <f t="shared" si="8"/>
         <v>45</v>
       </c>
-      <c r="K60" t="str">
-        <f t="shared" si="2"/>
-        <v>D-desiccation</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A61" t="s">
-        <v>284</v>
+      <c r="L60" t="str">
+        <f t="shared" si="9"/>
+        <v>T-desiccation</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A61" t="str">
+        <f>VLOOKUP(D61,list!A:D,4,FALSE)</f>
+        <v>control</v>
       </c>
       <c r="B61" s="1" t="str">
         <f>VLOOKUP(D61,list!A:F,6,FALSE)</f>
         <v>D</v>
       </c>
       <c r="C61" s="1">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>179</v>
+        <v>45</v>
       </c>
       <c r="E61" s="1">
-        <v>188</v>
+        <v>59</v>
       </c>
       <c r="F61" s="1">
-        <f>ROUND(((45*60)/E61),0)</f>
-        <v>14</v>
+        <v>170</v>
       </c>
       <c r="G61" s="1">
-        <f>60-F61</f>
-        <v>46</v>
+        <f t="shared" si="5"/>
+        <v>16</v>
       </c>
       <c r="H61" s="1">
-        <f t="shared" si="0"/>
-        <v>2632</v>
+        <f t="shared" si="6"/>
+        <v>44</v>
       </c>
       <c r="I61" s="1">
-        <f t="shared" si="1"/>
-        <v>44</v>
-      </c>
-      <c r="K61" t="str">
-        <f t="shared" si="2"/>
-        <v>D-desiccation</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.4">
+        <f t="shared" si="7"/>
+        <v>2720</v>
+      </c>
+      <c r="J61" s="1">
+        <f t="shared" si="8"/>
+        <v>45</v>
+      </c>
+      <c r="L61" t="str">
+        <f t="shared" si="9"/>
+        <v>D-control</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="s">
         <v>284</v>
       </c>
@@ -10428,36 +10998,39 @@
         <v>D</v>
       </c>
       <c r="C62" s="1">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E62" s="15">
-        <v>174</v>
+        <v>83</v>
+      </c>
+      <c r="E62" s="1">
+        <v>60</v>
       </c>
       <c r="F62" s="1">
-        <f>ROUND(((45*60)/E62),0)</f>
-        <v>16</v>
+        <v>198</v>
       </c>
       <c r="G62" s="1">
-        <f>60-F62</f>
-        <v>44</v>
+        <f t="shared" si="5"/>
+        <v>14</v>
       </c>
       <c r="H62" s="1">
-        <f t="shared" si="0"/>
-        <v>2784</v>
+        <f t="shared" si="6"/>
+        <v>46</v>
       </c>
       <c r="I62" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
+        <v>2772</v>
+      </c>
+      <c r="J62" s="1">
+        <f t="shared" si="8"/>
         <v>46</v>
       </c>
-      <c r="K62" t="str">
-        <f t="shared" si="2"/>
+      <c r="L62" t="str">
+        <f t="shared" si="9"/>
         <v>D-desiccation</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="s">
         <v>284</v>
       </c>
@@ -10466,188 +11039,201 @@
         <v>T</v>
       </c>
       <c r="C63" s="1">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E63" s="15">
-        <v>138</v>
-      </c>
-      <c r="F63" s="1">
-        <f>ROUND(((45*60)/E63),0)</f>
-        <v>20</v>
+        <v>101</v>
+      </c>
+      <c r="E63" s="1">
+        <v>61</v>
+      </c>
+      <c r="F63" s="15">
+        <v>32</v>
       </c>
       <c r="G63" s="1">
-        <f>60-F63</f>
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H63" s="1">
-        <f t="shared" si="0"/>
-        <v>2760</v>
+        <f t="shared" si="6"/>
+        <v>10</v>
       </c>
       <c r="I63" s="1">
-        <f t="shared" si="1"/>
-        <v>46</v>
-      </c>
-      <c r="K63" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
+        <v>1600</v>
+      </c>
+      <c r="J63" s="1">
+        <f t="shared" si="8"/>
+        <v>27</v>
+      </c>
+      <c r="L63" t="str">
+        <f t="shared" si="9"/>
         <v>T-desiccation</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" t="s">
         <v>284</v>
       </c>
       <c r="B64" s="1" t="str">
         <f>VLOOKUP(D64,list!A:F,6,FALSE)</f>
-        <v>T</v>
+        <v>D</v>
       </c>
       <c r="C64" s="1">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E64" s="1">
-        <v>90.4</v>
-      </c>
-      <c r="F64" s="1">
-        <f>ROUND(((45*60)/E64),0)</f>
-        <v>30</v>
+        <v>62</v>
+      </c>
+      <c r="F64" s="15">
+        <v>22.8</v>
       </c>
       <c r="G64" s="1">
-        <f>60-F64</f>
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H64" s="1">
-        <f t="shared" si="0"/>
-        <v>2712</v>
+        <f t="shared" si="6"/>
+        <v>10</v>
       </c>
       <c r="I64" s="1">
-        <f t="shared" si="1"/>
-        <v>45</v>
-      </c>
-      <c r="K64" t="str">
-        <f t="shared" si="2"/>
-        <v>T-desiccation</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.4">
+        <f t="shared" si="7"/>
+        <v>1140</v>
+      </c>
+      <c r="J64" s="1">
+        <f t="shared" si="8"/>
+        <v>19</v>
+      </c>
+      <c r="L64" t="str">
+        <f t="shared" si="9"/>
+        <v>D-desiccation</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" t="s">
         <v>284</v>
       </c>
       <c r="B65" s="1" t="str">
         <f>VLOOKUP(D65,list!A:F,6,FALSE)</f>
-        <v>T</v>
+        <v>D</v>
       </c>
       <c r="C65" s="1">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="E65" s="1">
+        <v>63</v>
+      </c>
+      <c r="F65" s="1">
         <v>186</v>
       </c>
-      <c r="F65" s="1">
-        <f>ROUND(((45*60)/E65),0)</f>
+      <c r="G65" s="1">
+        <f t="shared" ref="G65:G73" si="10">ROUND(((45*60)/F65),0)</f>
         <v>15</v>
       </c>
-      <c r="G65" s="1">
-        <f>60-F65</f>
+      <c r="H65" s="1">
+        <f t="shared" si="6"/>
         <v>45</v>
       </c>
-      <c r="H65" s="1">
-        <f t="shared" si="0"/>
+      <c r="I65" s="1">
+        <f t="shared" si="7"/>
         <v>2790</v>
       </c>
-      <c r="I65" s="1">
-        <f t="shared" si="1"/>
+      <c r="J65" s="1">
+        <f t="shared" si="8"/>
         <v>47</v>
       </c>
-      <c r="K65" t="str">
-        <f t="shared" si="2"/>
-        <v>T-desiccation</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L65" t="str">
+        <f t="shared" si="9"/>
+        <v>D-desiccation</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" t="s">
         <v>284</v>
       </c>
       <c r="B66" s="1" t="str">
         <f>VLOOKUP(D66,list!A:F,6,FALSE)</f>
-        <v>T</v>
+        <v>D</v>
       </c>
       <c r="C66" s="1">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E66" s="1">
-        <v>116</v>
+        <v>64</v>
       </c>
       <c r="F66" s="1">
-        <f>ROUND(((45*60)/E66),0)</f>
-        <v>23</v>
+        <v>122</v>
       </c>
       <c r="G66" s="1">
-        <f>60-F66</f>
-        <v>37</v>
+        <f t="shared" si="10"/>
+        <v>22</v>
       </c>
       <c r="H66" s="1">
-        <f t="shared" si="0"/>
-        <v>2668</v>
+        <f t="shared" si="6"/>
+        <v>38</v>
       </c>
       <c r="I66" s="1">
-        <f t="shared" si="1"/>
-        <v>44</v>
-      </c>
-      <c r="K66" t="str">
-        <f t="shared" si="2"/>
-        <v>T-desiccation</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.4">
+        <f t="shared" si="7"/>
+        <v>2684</v>
+      </c>
+      <c r="J66" s="1">
+        <f t="shared" si="8"/>
+        <v>45</v>
+      </c>
+      <c r="L66" t="str">
+        <f t="shared" si="9"/>
+        <v>D-desiccation</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" t="s">
         <v>284</v>
       </c>
       <c r="B67" s="1" t="str">
         <f>VLOOKUP(D67,list!A:F,6,FALSE)</f>
-        <v>T</v>
+        <v>D</v>
       </c>
       <c r="C67" s="1">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="E67" s="1">
-        <v>130</v>
-      </c>
-      <c r="F67" s="1">
-        <f>ROUND(((45*60)/E67),0)</f>
-        <v>21</v>
+        <v>65</v>
+      </c>
+      <c r="F67" s="15">
+        <v>61</v>
       </c>
       <c r="G67" s="1">
-        <f>60-F67</f>
-        <v>39</v>
+        <f t="shared" si="10"/>
+        <v>44</v>
       </c>
       <c r="H67" s="1">
-        <f t="shared" si="0"/>
-        <v>2730</v>
+        <f t="shared" ref="H67:H98" si="11">60-G67</f>
+        <v>16</v>
       </c>
       <c r="I67" s="1">
-        <f t="shared" si="1"/>
-        <v>46</v>
-      </c>
-      <c r="K67" t="str">
-        <f t="shared" si="2"/>
-        <v>T-desiccation</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.4">
+        <f t="shared" ref="I67:I74" si="12">ROUND(F67*G67,0)</f>
+        <v>2684</v>
+      </c>
+      <c r="J67" s="1">
+        <f t="shared" ref="J67:J98" si="13">ROUND(I67/60,0)</f>
+        <v>45</v>
+      </c>
+      <c r="L67" t="str">
+        <f t="shared" ref="L67:L74" si="14">B67&amp;"-"&amp;A67</f>
+        <v>D-desiccation</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" t="s">
         <v>284</v>
       </c>
@@ -10656,74 +11242,80 @@
         <v>T</v>
       </c>
       <c r="C68" s="1">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="E68" s="1">
-        <v>112</v>
+        <v>66</v>
       </c>
       <c r="F68" s="1">
-        <f>ROUND(((45*60)/E68),0)</f>
-        <v>24</v>
+        <v>140</v>
       </c>
       <c r="G68" s="1">
-        <f>60-F68</f>
-        <v>36</v>
+        <f t="shared" si="10"/>
+        <v>19</v>
       </c>
       <c r="H68" s="1">
-        <f t="shared" ref="H68:H74" si="3">ROUND(E68*F68,0)</f>
-        <v>2688</v>
+        <f t="shared" si="11"/>
+        <v>41</v>
       </c>
       <c r="I68" s="1">
-        <f t="shared" ref="I68:I74" si="4">ROUND(H68/60,0)</f>
-        <v>45</v>
-      </c>
-      <c r="K68" t="str">
-        <f t="shared" ref="K68:K74" si="5">B68&amp;"-"&amp;A68</f>
+        <f t="shared" si="12"/>
+        <v>2660</v>
+      </c>
+      <c r="J68" s="1">
+        <f t="shared" si="13"/>
+        <v>44</v>
+      </c>
+      <c r="L68" t="str">
+        <f t="shared" si="14"/>
         <v>T-desiccation</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" t="s">
         <v>284</v>
       </c>
       <c r="B69" s="1" t="str">
         <f>VLOOKUP(D69,list!A:F,6,FALSE)</f>
-        <v>T</v>
+        <v>D</v>
       </c>
       <c r="C69" s="1">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="E69" s="1">
-        <v>86.4</v>
+        <v>67</v>
       </c>
       <c r="F69" s="1">
-        <f>ROUND(((45*60)/E69),0)</f>
-        <v>31</v>
+        <v>134</v>
       </c>
       <c r="G69" s="1">
-        <f>60-F69</f>
-        <v>29</v>
+        <f t="shared" si="10"/>
+        <v>20</v>
       </c>
       <c r="H69" s="1">
-        <f t="shared" si="3"/>
-        <v>2678</v>
+        <f t="shared" si="11"/>
+        <v>40</v>
       </c>
       <c r="I69" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
+        <v>2680</v>
+      </c>
+      <c r="J69" s="1">
+        <f t="shared" si="13"/>
         <v>45</v>
       </c>
-      <c r="K69" t="str">
-        <f t="shared" si="5"/>
-        <v>T-desiccation</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L69" t="str">
+        <f t="shared" si="14"/>
+        <v>D-desiccation</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" t="s">
         <v>284</v>
       </c>
@@ -10732,73 +11324,80 @@
         <v>T</v>
       </c>
       <c r="C70" s="1">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E70" s="15">
-        <v>32</v>
+        <v>90</v>
+      </c>
+      <c r="E70" s="1">
+        <v>68</v>
       </c>
       <c r="F70" s="1">
-        <v>50</v>
+        <v>138</v>
       </c>
       <c r="G70" s="1">
-        <f>60-F70</f>
-        <v>10</v>
+        <f t="shared" si="10"/>
+        <v>20</v>
       </c>
       <c r="H70" s="1">
-        <f t="shared" si="3"/>
-        <v>1600</v>
+        <f t="shared" si="11"/>
+        <v>40</v>
       </c>
       <c r="I70" s="1">
-        <f t="shared" si="4"/>
-        <v>27</v>
-      </c>
-      <c r="K70" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
+        <v>2760</v>
+      </c>
+      <c r="J70" s="1">
+        <f t="shared" si="13"/>
+        <v>46</v>
+      </c>
+      <c r="L70" t="str">
+        <f t="shared" si="14"/>
         <v>T-desiccation</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" t="s">
         <v>284</v>
       </c>
       <c r="B71" s="1" t="str">
         <f>VLOOKUP(D71,list!A:F,6,FALSE)</f>
-        <v>T</v>
+        <v>D</v>
       </c>
       <c r="C71" s="1">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>91</v>
+        <v>179</v>
       </c>
       <c r="E71" s="1">
-        <v>140</v>
+        <v>69</v>
       </c>
       <c r="F71" s="1">
-        <f>ROUND(((45*60)/E71),0)</f>
-        <v>19</v>
+        <v>188</v>
       </c>
       <c r="G71" s="1">
-        <f>60-F71</f>
-        <v>41</v>
+        <f t="shared" si="10"/>
+        <v>14</v>
       </c>
       <c r="H71" s="1">
-        <f t="shared" si="3"/>
-        <v>2660</v>
+        <f t="shared" si="11"/>
+        <v>46</v>
       </c>
       <c r="I71" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
+        <v>2632</v>
+      </c>
+      <c r="J71" s="1">
+        <f t="shared" si="13"/>
         <v>44</v>
       </c>
-      <c r="K71" t="str">
-        <f t="shared" si="5"/>
-        <v>T-desiccation</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L71" t="str">
+        <f t="shared" si="14"/>
+        <v>D-desiccation</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" t="s">
         <v>284</v>
       </c>
@@ -10807,74 +11406,80 @@
         <v>T</v>
       </c>
       <c r="C72" s="1">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E72" s="1">
-        <v>138</v>
-      </c>
-      <c r="F72" s="1">
-        <f>ROUND(((45*60)/E72),0)</f>
-        <v>20</v>
+        <v>70</v>
+      </c>
+      <c r="F72" s="15">
+        <v>170</v>
       </c>
       <c r="G72" s="1">
-        <f>60-F72</f>
-        <v>40</v>
+        <f t="shared" si="10"/>
+        <v>16</v>
       </c>
       <c r="H72" s="1">
-        <f t="shared" si="3"/>
-        <v>2760</v>
+        <f t="shared" si="11"/>
+        <v>44</v>
       </c>
       <c r="I72" s="1">
-        <f t="shared" si="4"/>
-        <v>46</v>
-      </c>
-      <c r="K72" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
+        <v>2720</v>
+      </c>
+      <c r="J72" s="1">
+        <f t="shared" si="13"/>
+        <v>45</v>
+      </c>
+      <c r="L72" t="str">
+        <f t="shared" si="14"/>
         <v>T-desiccation</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" t="s">
         <v>284</v>
       </c>
       <c r="B73" s="1" t="str">
         <f>VLOOKUP(D73,list!A:F,6,FALSE)</f>
-        <v>T</v>
+        <v>D</v>
       </c>
       <c r="C73" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E73" s="15">
-        <v>170</v>
-      </c>
-      <c r="F73" s="1">
-        <f>ROUND(((45*60)/E73),0)</f>
+        <v>88</v>
+      </c>
+      <c r="E73" s="1">
+        <v>71</v>
+      </c>
+      <c r="F73" s="15">
+        <v>174</v>
+      </c>
+      <c r="G73" s="1">
+        <f t="shared" si="10"/>
         <v>16</v>
       </c>
-      <c r="G73" s="1">
-        <f>60-F73</f>
+      <c r="H73" s="1">
+        <f t="shared" si="11"/>
         <v>44</v>
       </c>
-      <c r="H73" s="1">
-        <f t="shared" si="3"/>
-        <v>2720</v>
-      </c>
       <c r="I73" s="1">
-        <f t="shared" si="4"/>
-        <v>45</v>
-      </c>
-      <c r="K73" t="str">
-        <f t="shared" si="5"/>
-        <v>T-desiccation</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.4">
+        <f t="shared" si="12"/>
+        <v>2784</v>
+      </c>
+      <c r="J73" s="1">
+        <f t="shared" si="13"/>
+        <v>46</v>
+      </c>
+      <c r="L73" t="str">
+        <f t="shared" si="14"/>
+        <v>D-desiccation</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" t="s">
         <v>284</v>
       </c>
@@ -10888,36 +11493,38 @@
       <c r="D74" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="E74" s="15">
+      <c r="E74" s="1">
+        <v>72</v>
+      </c>
+      <c r="F74" s="15">
         <v>15.7</v>
       </c>
-      <c r="F74" s="1">
+      <c r="G74" s="1">
         <v>50</v>
       </c>
-      <c r="G74" s="1">
-        <f>60-F74</f>
+      <c r="H74" s="1">
+        <f t="shared" si="11"/>
         <v>10</v>
       </c>
-      <c r="H74" s="1">
-        <f t="shared" si="3"/>
+      <c r="I74" s="1">
+        <f t="shared" si="12"/>
         <v>785</v>
       </c>
-      <c r="I74" s="1">
-        <f t="shared" si="4"/>
+      <c r="J74" s="1">
+        <f t="shared" si="13"/>
         <v>13</v>
       </c>
-      <c r="K74" t="str">
-        <f t="shared" si="5"/>
+      <c r="L74" t="str">
+        <f t="shared" si="14"/>
         <v>T-desiccation</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:G74">
-    <sortCondition ref="A3:A74" customList="control,heat_only,heat_desiccation"/>
-    <sortCondition ref="B3:B74"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:L74">
+    <sortCondition ref="C3:C74" customList="control,heat_only,heat_desiccation"/>
   </sortState>
   <mergeCells count="1">
-    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="G1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -10925,20 +11532,1367 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{432412FF-B821-4791-838A-11E02A8C595D}">
+  <dimension ref="A1:L73"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E73"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="2" width="8.83984375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="1">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>288</v>
+      </c>
+      <c r="E2" t="str">
+        <f>C2&amp;"_"&amp;A2</f>
+        <v>A1_D56</v>
+      </c>
+      <c r="K2" t="s">
+        <v>317</v>
+      </c>
+      <c r="L2" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="1">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>289</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E66" si="0">C3&amp;"_"&amp;A3</f>
+        <v>B1_M48</v>
+      </c>
+      <c r="K3" t="s">
+        <v>324</v>
+      </c>
+      <c r="L3" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="1">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>290</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="0"/>
+        <v>C1_M89</v>
+      </c>
+      <c r="K4" t="s">
+        <v>331</v>
+      </c>
+      <c r="L4" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="1">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>291</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="0"/>
+        <v>D1_M49</v>
+      </c>
+      <c r="K5" t="s">
+        <v>338</v>
+      </c>
+      <c r="L5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="1">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>292</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="0"/>
+        <v>E1_M45</v>
+      </c>
+      <c r="K6" t="s">
+        <v>344</v>
+      </c>
+      <c r="L6" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="1">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>293</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="0"/>
+        <v>F1_M46</v>
+      </c>
+      <c r="K7" t="s">
+        <v>351</v>
+      </c>
+      <c r="L7" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="1">
+        <v>36</v>
+      </c>
+      <c r="C8" t="s">
+        <v>294</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="0"/>
+        <v>G1_D59</v>
+      </c>
+      <c r="K8" t="s">
+        <v>358</v>
+      </c>
+      <c r="L8" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="1">
+        <v>37</v>
+      </c>
+      <c r="C9" t="s">
+        <v>295</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="0"/>
+        <v>H1_D57</v>
+      </c>
+      <c r="K9" t="s">
+        <v>364</v>
+      </c>
+      <c r="L9" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="1">
+        <v>48</v>
+      </c>
+      <c r="C10" t="s">
+        <v>296</v>
+      </c>
+      <c r="D10" t="s">
+        <v>210</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="0"/>
+        <v>A2_D58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="1">
+        <v>49</v>
+      </c>
+      <c r="C11" t="s">
+        <v>298</v>
+      </c>
+      <c r="D11" t="s">
+        <v>210</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="0"/>
+        <v>B2_D54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="1">
+        <v>50</v>
+      </c>
+      <c r="C12" t="s">
+        <v>300</v>
+      </c>
+      <c r="D12" t="s">
+        <v>210</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="0"/>
+        <v>C2_D55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="1">
+        <v>59</v>
+      </c>
+      <c r="C13" t="s">
+        <v>302</v>
+      </c>
+      <c r="D13" t="s">
+        <v>210</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="0"/>
+        <v>D2_M90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" s="1">
+        <v>4</v>
+      </c>
+      <c r="C14" t="s">
+        <v>304</v>
+      </c>
+      <c r="D14" t="s">
+        <v>210</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="0"/>
+        <v>E2_T62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" s="1">
+        <v>7</v>
+      </c>
+      <c r="C15" t="s">
+        <v>306</v>
+      </c>
+      <c r="D15" t="s">
+        <v>210</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="0"/>
+        <v>F2_T60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B16" s="1">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>308</v>
+      </c>
+      <c r="D16" t="s">
+        <v>210</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="0"/>
+        <v>G2_X47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" s="1">
+        <v>11</v>
+      </c>
+      <c r="C17" t="s">
+        <v>310</v>
+      </c>
+      <c r="D17" t="s">
+        <v>210</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="0"/>
+        <v>H2_T59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" s="1">
+        <v>16</v>
+      </c>
+      <c r="C18" t="s">
+        <v>297</v>
+      </c>
+      <c r="D18" t="s">
+        <v>210</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="0"/>
+        <v>A3_T58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B19" s="1">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>299</v>
+      </c>
+      <c r="D19" t="s">
+        <v>210</v>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" si="0"/>
+        <v>B3_X46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B20" s="1">
+        <v>21</v>
+      </c>
+      <c r="C20" t="s">
+        <v>301</v>
+      </c>
+      <c r="D20" t="s">
+        <v>210</v>
+      </c>
+      <c r="E20" t="str">
+        <f t="shared" si="0"/>
+        <v>C3_X48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" s="1">
+        <v>31</v>
+      </c>
+      <c r="C21" t="s">
+        <v>303</v>
+      </c>
+      <c r="D21" t="s">
+        <v>210</v>
+      </c>
+      <c r="E21" t="str">
+        <f t="shared" si="0"/>
+        <v>D3_T56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" s="1">
+        <v>33</v>
+      </c>
+      <c r="C22" t="s">
+        <v>305</v>
+      </c>
+      <c r="D22" t="s">
+        <v>210</v>
+      </c>
+      <c r="E22" t="str">
+        <f t="shared" si="0"/>
+        <v>E3_T61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B23" s="1">
+        <v>39</v>
+      </c>
+      <c r="C23" t="s">
+        <v>307</v>
+      </c>
+      <c r="D23" t="s">
+        <v>210</v>
+      </c>
+      <c r="E23" t="str">
+        <f t="shared" si="0"/>
+        <v>F3_T57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" s="1">
+        <v>42</v>
+      </c>
+      <c r="C24" t="s">
+        <v>309</v>
+      </c>
+      <c r="D24" t="s">
+        <v>210</v>
+      </c>
+      <c r="E24" t="str">
+        <f t="shared" si="0"/>
+        <v>G3_T55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B25" s="1">
+        <v>46</v>
+      </c>
+      <c r="C25" t="s">
+        <v>311</v>
+      </c>
+      <c r="D25" t="s">
+        <v>210</v>
+      </c>
+      <c r="E25" t="str">
+        <f t="shared" si="0"/>
+        <v>H3_X45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" s="1">
+        <v>2</v>
+      </c>
+      <c r="C26" t="s">
+        <v>312</v>
+      </c>
+      <c r="D26" t="s">
+        <v>210</v>
+      </c>
+      <c r="E26" t="str">
+        <f t="shared" si="0"/>
+        <v>A4_M43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" s="1">
+        <v>12</v>
+      </c>
+      <c r="C27" t="s">
+        <v>319</v>
+      </c>
+      <c r="D27" t="s">
+        <v>210</v>
+      </c>
+      <c r="E27" t="str">
+        <f t="shared" si="0"/>
+        <v>B4_M41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" s="1">
+        <v>13</v>
+      </c>
+      <c r="C28" t="s">
+        <v>326</v>
+      </c>
+      <c r="D28" t="s">
+        <v>210</v>
+      </c>
+      <c r="E28" t="str">
+        <f t="shared" si="0"/>
+        <v>C4_M47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" s="1">
+        <v>17</v>
+      </c>
+      <c r="C29" t="s">
+        <v>333</v>
+      </c>
+      <c r="D29" t="s">
+        <v>210</v>
+      </c>
+      <c r="E29" t="str">
+        <f t="shared" si="0"/>
+        <v>D4_M44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" s="1">
+        <v>24</v>
+      </c>
+      <c r="C30" t="s">
+        <v>339</v>
+      </c>
+      <c r="D30" t="s">
+        <v>210</v>
+      </c>
+      <c r="E30" t="str">
+        <f t="shared" si="0"/>
+        <v>E4_N41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B31" s="1">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>346</v>
+      </c>
+      <c r="D31" t="s">
+        <v>210</v>
+      </c>
+      <c r="E31" t="str">
+        <f t="shared" si="0"/>
+        <v>F4_N43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B32" s="1">
+        <v>32</v>
+      </c>
+      <c r="C32" t="s">
+        <v>353</v>
+      </c>
+      <c r="D32" t="s">
+        <v>210</v>
+      </c>
+      <c r="E32" t="str">
+        <f t="shared" si="0"/>
+        <v>G4_N45</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B33" s="1">
+        <v>34</v>
+      </c>
+      <c r="C33" t="s">
+        <v>359</v>
+      </c>
+      <c r="D33" t="s">
+        <v>210</v>
+      </c>
+      <c r="E33" t="str">
+        <f t="shared" si="0"/>
+        <v>H4_N42</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B34" s="1">
+        <v>35</v>
+      </c>
+      <c r="C34" t="s">
+        <v>313</v>
+      </c>
+      <c r="D34" t="s">
+        <v>210</v>
+      </c>
+      <c r="E34" t="str">
+        <f t="shared" si="0"/>
+        <v>A5_N47</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" s="1">
+        <v>38</v>
+      </c>
+      <c r="C35" t="s">
+        <v>320</v>
+      </c>
+      <c r="D35" t="s">
+        <v>210</v>
+      </c>
+      <c r="E35" t="str">
+        <f t="shared" si="0"/>
+        <v>B5_M42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B36" s="1">
+        <v>41</v>
+      </c>
+      <c r="C36" t="s">
+        <v>327</v>
+      </c>
+      <c r="D36" t="s">
+        <v>210</v>
+      </c>
+      <c r="E36" t="str">
+        <f t="shared" si="0"/>
+        <v>C5_N46</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B37" s="1">
+        <v>55</v>
+      </c>
+      <c r="C37" t="s">
+        <v>334</v>
+      </c>
+      <c r="D37" t="s">
+        <v>210</v>
+      </c>
+      <c r="E37" t="str">
+        <f t="shared" si="0"/>
+        <v>D5_N44</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B38" s="1">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>340</v>
+      </c>
+      <c r="D38" t="s">
+        <v>210</v>
+      </c>
+      <c r="E38" t="str">
+        <f t="shared" si="0"/>
+        <v>E5_X44</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B39" s="1">
+        <v>5</v>
+      </c>
+      <c r="C39" t="s">
+        <v>347</v>
+      </c>
+      <c r="D39" t="s">
+        <v>210</v>
+      </c>
+      <c r="E39" t="str">
+        <f t="shared" si="0"/>
+        <v>F5_X43</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B40" s="1">
+        <v>9</v>
+      </c>
+      <c r="C40" t="s">
+        <v>354</v>
+      </c>
+      <c r="D40" t="s">
+        <v>210</v>
+      </c>
+      <c r="E40" t="str">
+        <f t="shared" si="0"/>
+        <v>G5_R50</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B41" s="1">
+        <v>10</v>
+      </c>
+      <c r="C41" t="s">
+        <v>360</v>
+      </c>
+      <c r="D41" t="s">
+        <v>210</v>
+      </c>
+      <c r="E41" t="str">
+        <f t="shared" si="0"/>
+        <v>H5_R42</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B42" s="1">
+        <v>14</v>
+      </c>
+      <c r="C42" t="s">
+        <v>314</v>
+      </c>
+      <c r="D42" t="s">
+        <v>210</v>
+      </c>
+      <c r="E42" t="str">
+        <f t="shared" si="0"/>
+        <v>A6_R48</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B43" s="1">
+        <v>15</v>
+      </c>
+      <c r="C43" t="s">
+        <v>321</v>
+      </c>
+      <c r="D43" t="s">
+        <v>210</v>
+      </c>
+      <c r="E43" t="str">
+        <f t="shared" si="0"/>
+        <v>B6_R43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B44" s="1">
+        <v>19</v>
+      </c>
+      <c r="C44" t="s">
+        <v>328</v>
+      </c>
+      <c r="D44" t="s">
+        <v>210</v>
+      </c>
+      <c r="E44" t="str">
+        <f t="shared" si="0"/>
+        <v>C6_R46</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B45" s="1">
+        <v>26</v>
+      </c>
+      <c r="C45" t="s">
+        <v>335</v>
+      </c>
+      <c r="D45" t="s">
+        <v>210</v>
+      </c>
+      <c r="E45" t="str">
+        <f t="shared" si="0"/>
+        <v>D6_R47</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B46" s="1">
+        <v>28</v>
+      </c>
+      <c r="C46" t="s">
+        <v>341</v>
+      </c>
+      <c r="D46" t="s">
+        <v>210</v>
+      </c>
+      <c r="E46" t="str">
+        <f t="shared" si="0"/>
+        <v>E6_R78</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B47" s="1">
+        <v>29</v>
+      </c>
+      <c r="C47" t="s">
+        <v>348</v>
+      </c>
+      <c r="D47" t="s">
+        <v>210</v>
+      </c>
+      <c r="E47" t="str">
+        <f t="shared" si="0"/>
+        <v>F6_R41</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B48" s="1">
+        <v>47</v>
+      </c>
+      <c r="C48" t="s">
+        <v>355</v>
+      </c>
+      <c r="D48" t="s">
+        <v>210</v>
+      </c>
+      <c r="E48" t="str">
+        <f t="shared" si="0"/>
+        <v>G6_X42</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B49" s="1">
+        <v>56</v>
+      </c>
+      <c r="C49" t="s">
+        <v>361</v>
+      </c>
+      <c r="D49" t="s">
+        <v>210</v>
+      </c>
+      <c r="E49" t="str">
+        <f t="shared" si="0"/>
+        <v>H6_X41</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B50" s="1">
+        <v>40</v>
+      </c>
+      <c r="C50" t="s">
+        <v>315</v>
+      </c>
+      <c r="D50" t="s">
+        <v>210</v>
+      </c>
+      <c r="E50" t="str">
+        <f t="shared" si="0"/>
+        <v>A7_N52</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B51" s="1">
+        <v>43</v>
+      </c>
+      <c r="C51" t="s">
+        <v>322</v>
+      </c>
+      <c r="D51" t="s">
+        <v>210</v>
+      </c>
+      <c r="E51" t="str">
+        <f t="shared" si="0"/>
+        <v>B7_N49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B52" s="1">
+        <v>45</v>
+      </c>
+      <c r="C52" t="s">
+        <v>329</v>
+      </c>
+      <c r="D52" t="s">
+        <v>210</v>
+      </c>
+      <c r="E52" t="str">
+        <f t="shared" si="0"/>
+        <v>C7_N51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B53" s="1">
+        <v>57</v>
+      </c>
+      <c r="C53" t="s">
+        <v>336</v>
+      </c>
+      <c r="D53" t="s">
+        <v>210</v>
+      </c>
+      <c r="E53" t="str">
+        <f t="shared" si="0"/>
+        <v>D7_N50</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B54" s="1">
+        <v>60</v>
+      </c>
+      <c r="C54" t="s">
+        <v>342</v>
+      </c>
+      <c r="D54" t="s">
+        <v>210</v>
+      </c>
+      <c r="E54" t="str">
+        <f t="shared" si="0"/>
+        <v>E7_N53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B55" s="1">
+        <v>62</v>
+      </c>
+      <c r="C55" t="s">
+        <v>349</v>
+      </c>
+      <c r="D55" t="s">
+        <v>210</v>
+      </c>
+      <c r="E55" t="str">
+        <f t="shared" si="0"/>
+        <v>F7_N59</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B56" s="1">
+        <v>63</v>
+      </c>
+      <c r="C56" t="s">
+        <v>356</v>
+      </c>
+      <c r="D56" t="s">
+        <v>210</v>
+      </c>
+      <c r="E56" t="str">
+        <f t="shared" si="0"/>
+        <v>G7_N55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B57" s="1">
+        <v>64</v>
+      </c>
+      <c r="C57" t="s">
+        <v>362</v>
+      </c>
+      <c r="D57" t="s">
+        <v>210</v>
+      </c>
+      <c r="E57" t="str">
+        <f t="shared" si="0"/>
+        <v>H7_N57</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B58" s="1">
+        <v>65</v>
+      </c>
+      <c r="C58" t="s">
+        <v>316</v>
+      </c>
+      <c r="D58" t="s">
+        <v>210</v>
+      </c>
+      <c r="E58" t="str">
+        <f t="shared" si="0"/>
+        <v>A8_N56</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A59" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B59" s="1">
+        <v>67</v>
+      </c>
+      <c r="C59" t="s">
+        <v>323</v>
+      </c>
+      <c r="D59" t="s">
+        <v>210</v>
+      </c>
+      <c r="E59" t="str">
+        <f t="shared" si="0"/>
+        <v>B8_N54</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B60" s="1">
+        <v>69</v>
+      </c>
+      <c r="C60" t="s">
+        <v>330</v>
+      </c>
+      <c r="D60" t="s">
+        <v>210</v>
+      </c>
+      <c r="E60" t="str">
+        <f t="shared" si="0"/>
+        <v>C8_N48</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A61" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B61" s="1">
+        <v>71</v>
+      </c>
+      <c r="C61" t="s">
+        <v>337</v>
+      </c>
+      <c r="D61" t="s">
+        <v>210</v>
+      </c>
+      <c r="E61" t="str">
+        <f t="shared" si="0"/>
+        <v>D8_N58</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A62" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B62" s="1">
+        <v>30</v>
+      </c>
+      <c r="C62" t="s">
+        <v>343</v>
+      </c>
+      <c r="D62" t="s">
+        <v>210</v>
+      </c>
+      <c r="E62" t="str">
+        <f t="shared" si="0"/>
+        <v>E8_R55</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A63" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B63" s="1">
+        <v>44</v>
+      </c>
+      <c r="C63" t="s">
+        <v>350</v>
+      </c>
+      <c r="D63" t="s">
+        <v>210</v>
+      </c>
+      <c r="E63" t="str">
+        <f t="shared" si="0"/>
+        <v>F8_R56</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A64" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B64" s="1">
+        <v>51</v>
+      </c>
+      <c r="C64" t="s">
+        <v>357</v>
+      </c>
+      <c r="D64" t="s">
+        <v>210</v>
+      </c>
+      <c r="E64" t="str">
+        <f t="shared" si="0"/>
+        <v>G8_R58</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A65" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B65" s="1">
+        <v>52</v>
+      </c>
+      <c r="C65" t="s">
+        <v>363</v>
+      </c>
+      <c r="D65" t="s">
+        <v>210</v>
+      </c>
+      <c r="E65" t="str">
+        <f t="shared" si="0"/>
+        <v>H8_R53</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A66" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B66" s="1">
+        <v>53</v>
+      </c>
+      <c r="C66" t="s">
+        <v>317</v>
+      </c>
+      <c r="D66" t="s">
+        <v>210</v>
+      </c>
+      <c r="E66" t="str">
+        <f t="shared" si="0"/>
+        <v>A9_R57</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A67" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B67" s="1">
+        <v>54</v>
+      </c>
+      <c r="C67" t="s">
+        <v>324</v>
+      </c>
+      <c r="D67" t="s">
+        <v>210</v>
+      </c>
+      <c r="E67" t="str">
+        <f t="shared" ref="E67:E73" si="1">C67&amp;"_"&amp;A67</f>
+        <v>B9_R60</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A68" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B68" s="1">
+        <v>58</v>
+      </c>
+      <c r="C68" t="s">
+        <v>331</v>
+      </c>
+      <c r="D68" t="s">
+        <v>210</v>
+      </c>
+      <c r="E68" t="str">
+        <f t="shared" si="1"/>
+        <v>C9_R59</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A69" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B69" s="1">
+        <v>61</v>
+      </c>
+      <c r="C69" t="s">
+        <v>338</v>
+      </c>
+      <c r="D69" t="s">
+        <v>210</v>
+      </c>
+      <c r="E69" t="str">
+        <f t="shared" si="1"/>
+        <v>D9_R62</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A70" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B70" s="1">
+        <v>66</v>
+      </c>
+      <c r="C70" t="s">
+        <v>344</v>
+      </c>
+      <c r="D70" t="s">
+        <v>210</v>
+      </c>
+      <c r="E70" t="str">
+        <f t="shared" si="1"/>
+        <v>E9_R52</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A71" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B71" s="1">
+        <v>68</v>
+      </c>
+      <c r="C71" t="s">
+        <v>351</v>
+      </c>
+      <c r="D71" t="s">
+        <v>210</v>
+      </c>
+      <c r="E71" t="str">
+        <f t="shared" si="1"/>
+        <v>F9_R51</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A72" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B72" s="1">
+        <v>70</v>
+      </c>
+      <c r="C72" t="s">
+        <v>358</v>
+      </c>
+      <c r="D72" t="s">
+        <v>210</v>
+      </c>
+      <c r="E72" t="str">
+        <f t="shared" si="1"/>
+        <v>G9_R54</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A73" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B73" s="1">
+        <v>72</v>
+      </c>
+      <c r="C73" t="s">
+        <v>364</v>
+      </c>
+      <c r="D73" t="s">
+        <v>210</v>
+      </c>
+      <c r="E73" t="str">
+        <f t="shared" si="1"/>
+        <v>H9_R61</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85A26770-F1D0-4796-A302-35FD92310A46}">
   <dimension ref="B2:N10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:N10"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="5.3828125" style="1" customWidth="1"/>
-    <col min="3" max="14" width="5.765625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="5.3671875" style="1" customWidth="1"/>
+    <col min="3" max="14" width="5.734375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C2" s="1">
         <v>1</v>
       </c>
@@ -10976,58 +12930,58 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="1" t="s">
         <v>183</v>
       </c>
       <c r="C3" s="13">
         <f>RNA!C3</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3" s="13">
         <f>RNA!C11</f>
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="E3" s="9">
         <f>RNA!C19</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F3" s="12">
         <f>RNA!C27</f>
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="G3" s="12">
         <f>RNA!C35</f>
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H3" s="8">
         <f>RNA!C43</f>
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="I3" s="11">
         <f>RNA!C51</f>
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="J3" s="11">
         <f>RNA!C59</f>
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="K3" s="10">
         <f>RNA!C67</f>
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.4">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="1" t="s">
         <v>184</v>
       </c>
       <c r="C4" s="13">
         <f>RNA!C4</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D4" s="13">
         <f>RNA!C12</f>
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="E4" s="9">
         <f>RNA!C20</f>
@@ -11035,216 +12989,216 @@
       </c>
       <c r="F4" s="12">
         <f>RNA!C28</f>
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="G4" s="12">
         <f>RNA!C36</f>
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H4" s="8">
         <f>RNA!C44</f>
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="I4" s="11">
         <f>RNA!C52</f>
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="J4" s="11">
         <f>RNA!C60</f>
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="K4" s="10">
         <f>RNA!C68</f>
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.4">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="1" t="s">
         <v>185</v>
       </c>
       <c r="C5" s="13">
         <f>RNA!C5</f>
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="D5" s="13">
         <f>RNA!C13</f>
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="E5" s="9">
         <f>RNA!C21</f>
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F5" s="12">
         <f>RNA!C29</f>
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="G5" s="12">
         <f>RNA!C37</f>
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H5" s="8">
         <f>RNA!C45</f>
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="I5" s="11">
         <f>RNA!C53</f>
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="J5" s="11">
         <f>RNA!C61</f>
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="K5" s="10">
         <f>RNA!C69</f>
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.4">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="1" t="s">
         <v>127</v>
       </c>
       <c r="C6" s="13">
         <f>RNA!C6</f>
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="D6" s="13">
         <f>RNA!C14</f>
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="E6" s="9">
         <f>RNA!C22</f>
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="F6" s="12">
         <f>RNA!C30</f>
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="G6" s="12">
         <f>RNA!C38</f>
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="H6" s="8">
         <f>RNA!C46</f>
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="I6" s="11">
         <f>RNA!C54</f>
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="J6" s="11">
         <f>RNA!C62</f>
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="K6" s="10">
         <f>RNA!C70</f>
-        <v>61</v>
-      </c>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.4">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="1" t="s">
         <v>186</v>
       </c>
       <c r="C7" s="13">
         <f>RNA!C7</f>
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="D7" s="9">
         <f>RNA!C15</f>
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E7" s="9">
         <f>RNA!C23</f>
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="F7" s="12">
         <f>RNA!C31</f>
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="G7" s="8">
         <f>RNA!C39</f>
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="H7" s="8">
         <f>RNA!C47</f>
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="I7" s="11">
         <f>RNA!C55</f>
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="J7" s="10">
         <f>RNA!C63</f>
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="K7" s="10">
         <f>RNA!C71</f>
-        <v>66</v>
-      </c>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.4">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="1" t="s">
         <v>187</v>
       </c>
       <c r="C8" s="13">
         <f>RNA!C8</f>
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="D8" s="9">
         <f>RNA!C16</f>
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E8" s="9">
         <f>RNA!C24</f>
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="F8" s="12">
         <f>RNA!C32</f>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G8" s="8">
         <f>RNA!C40</f>
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="H8" s="8">
         <f>RNA!C48</f>
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="I8" s="11">
         <f>RNA!C56</f>
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="J8" s="10">
         <f>RNA!C64</f>
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="K8" s="10">
         <f>RNA!C72</f>
-        <v>68</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="1" t="s">
         <v>188</v>
       </c>
       <c r="C9" s="13">
         <f>RNA!C9</f>
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="D9" s="9">
         <f>RNA!C17</f>
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E9" s="9">
         <f>RNA!C25</f>
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="F9" s="12">
         <f>RNA!C33</f>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G9" s="8">
         <f>RNA!C41</f>
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="H9" s="8">
         <f>RNA!C49</f>
@@ -11252,52 +13206,52 @@
       </c>
       <c r="I9" s="11">
         <f>RNA!C57</f>
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="J9" s="10">
         <f>RNA!C65</f>
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="K9" s="10">
         <f>RNA!C73</f>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.4">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="1" t="s">
         <v>189</v>
       </c>
       <c r="C10" s="13">
         <f>RNA!C10</f>
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="D10" s="9">
         <f>RNA!C18</f>
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E10" s="9">
         <f>RNA!C26</f>
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="F10" s="12">
         <f>RNA!C34</f>
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G10" s="8">
         <f>RNA!C42</f>
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="H10" s="8">
         <f>RNA!C50</f>
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="I10" s="11">
         <f>RNA!C58</f>
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="J10" s="10">
         <f>RNA!C66</f>
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="K10" s="10">
         <f>RNA!C74</f>
